--- a/추가피처데이터/투자자별매매동향(수급)/272210.xlsx
+++ b/추가피처데이터/투자자별매매동향(수급)/272210.xlsx
@@ -1661,43 +1661,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="23" max="23" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="33" max="33" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -1929,94 +1929,94 @@
         <v>18</v>
       </c>
       <c r="B6" s="5">
-        <v>2747</v>
+        <v>39005</v>
       </c>
       <c r="C6" s="7">
-        <v>2403</v>
+        <v>34133</v>
       </c>
       <c r="D6" s="9">
-        <v>343</v>
+        <v>4872</v>
       </c>
       <c r="E6" s="11">
-        <v>5151</v>
+        <v>73338</v>
       </c>
       <c r="F6" s="13">
-        <v>5493</v>
+        <v>78281</v>
       </c>
       <c r="G6" s="15">
-        <v>-342</v>
+        <v>-4943</v>
       </c>
       <c r="H6" s="17">
-        <v>1013</v>
+        <v>14465</v>
       </c>
       <c r="I6" s="19">
-        <v>1025</v>
+        <v>14540</v>
       </c>
       <c r="J6" s="21">
-        <v>-11</v>
+        <v>-75</v>
       </c>
       <c r="K6" s="23">
-        <v>592</v>
+        <v>8466</v>
       </c>
       <c r="L6" s="25">
-        <v>584</v>
+        <v>8295</v>
       </c>
       <c r="M6" s="27">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="N6" s="29">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c r="O6" s="31">
-        <v>25</v>
+        <v>357</v>
       </c>
       <c r="P6" s="33">
-        <v>-11</v>
+        <v>-151</v>
       </c>
       <c r="Q6" s="35">
-        <v>52</v>
+        <v>737</v>
       </c>
       <c r="R6" s="37">
-        <v>103</v>
+        <v>1466</v>
       </c>
       <c r="S6" s="39">
-        <v>-51</v>
+        <v>-729</v>
       </c>
       <c r="T6" s="41">
         <v>0</v>
       </c>
       <c r="U6" s="43">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V6" s="45">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="W6" s="47">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="X6" s="49">
         <v>0</v>
       </c>
       <c r="Y6" s="51">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Z6" s="53">
-        <v>324</v>
+        <v>4624</v>
       </c>
       <c r="AA6" s="55">
-        <v>263</v>
+        <v>3724</v>
       </c>
       <c r="AB6" s="57">
-        <v>61</v>
+        <v>900</v>
       </c>
       <c r="AC6" s="59">
-        <v>30</v>
+        <v>419</v>
       </c>
       <c r="AD6" s="61">
-        <v>49</v>
+        <v>692</v>
       </c>
       <c r="AE6" s="63">
-        <v>-20</v>
+        <v>-272</v>
       </c>
       <c r="AF6" s="65">
         <v>0</v>
@@ -2028,16 +2028,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="71">
-        <v>63</v>
+        <v>902</v>
       </c>
       <c r="AJ6" s="73">
-        <v>53</v>
+        <v>756</v>
       </c>
       <c r="AK6" s="75">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="AL6" s="77">
-        <v>8974</v>
+        <v>127710</v>
       </c>
     </row>
     <row r="7">
@@ -2045,58 +2045,58 @@
         <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>6042</v>
+        <v>88269</v>
       </c>
       <c r="C7" s="7">
-        <v>5328</v>
+        <v>77979</v>
       </c>
       <c r="D7" s="9">
-        <v>714</v>
+        <v>10290</v>
       </c>
       <c r="E7" s="11">
-        <v>12874</v>
+        <v>188745</v>
       </c>
       <c r="F7" s="13">
-        <v>15025</v>
+        <v>219903</v>
       </c>
       <c r="G7" s="15">
-        <v>-2151</v>
+        <v>-31158</v>
       </c>
       <c r="H7" s="17">
-        <v>3742</v>
+        <v>54583</v>
       </c>
       <c r="I7" s="19">
-        <v>2275</v>
+        <v>33266</v>
       </c>
       <c r="J7" s="21">
-        <v>1468</v>
+        <v>21317</v>
       </c>
       <c r="K7" s="23">
-        <v>1054</v>
+        <v>15436</v>
       </c>
       <c r="L7" s="25">
-        <v>1329</v>
+        <v>19565</v>
       </c>
       <c r="M7" s="27">
-        <v>-275</v>
+        <v>-4130</v>
       </c>
       <c r="N7" s="29">
-        <v>337</v>
+        <v>4895</v>
       </c>
       <c r="O7" s="31">
-        <v>100</v>
+        <v>1448</v>
       </c>
       <c r="P7" s="33">
-        <v>237</v>
+        <v>3446</v>
       </c>
       <c r="Q7" s="35">
-        <v>302</v>
+        <v>4359</v>
       </c>
       <c r="R7" s="37">
-        <v>423</v>
+        <v>6139</v>
       </c>
       <c r="S7" s="39">
-        <v>-121</v>
+        <v>-1780</v>
       </c>
       <c r="T7" s="41">
         <v>0</v>
@@ -2108,31 +2108,31 @@
         <v>0</v>
       </c>
       <c r="W7" s="47">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="X7" s="49">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Y7" s="51">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="Z7" s="53">
-        <v>1807</v>
+        <v>26331</v>
       </c>
       <c r="AA7" s="55">
-        <v>178</v>
+        <v>2595</v>
       </c>
       <c r="AB7" s="57">
-        <v>1629</v>
+        <v>23736</v>
       </c>
       <c r="AC7" s="59">
-        <v>240</v>
+        <v>3531</v>
       </c>
       <c r="AD7" s="61">
-        <v>242</v>
+        <v>3502</v>
       </c>
       <c r="AE7" s="63">
-        <v>-2</v>
+        <v>29</v>
       </c>
       <c r="AF7" s="65">
         <v>0</v>
@@ -2144,16 +2144,16 @@
         <v>0</v>
       </c>
       <c r="AI7" s="71">
-        <v>139</v>
+        <v>2046</v>
       </c>
       <c r="AJ7" s="73">
-        <v>170</v>
+        <v>2495</v>
       </c>
       <c r="AK7" s="75">
-        <v>-31</v>
+        <v>-449</v>
       </c>
       <c r="AL7" s="77">
-        <v>22798</v>
+        <v>333642</v>
       </c>
     </row>
     <row r="8">
@@ -2161,58 +2161,58 @@
         <v>20</v>
       </c>
       <c r="B8" s="5">
-        <v>3914</v>
+        <v>49069</v>
       </c>
       <c r="C8" s="7">
-        <v>3294</v>
+        <v>41230</v>
       </c>
       <c r="D8" s="9">
-        <v>619</v>
+        <v>7839</v>
       </c>
       <c r="E8" s="11">
-        <v>8902</v>
+        <v>111444</v>
       </c>
       <c r="F8" s="13">
-        <v>10196</v>
+        <v>128611</v>
       </c>
       <c r="G8" s="15">
-        <v>-1295</v>
+        <v>-17167</v>
       </c>
       <c r="H8" s="17">
-        <v>2073</v>
+        <v>26569</v>
       </c>
       <c r="I8" s="19">
-        <v>1369</v>
+        <v>16917</v>
       </c>
       <c r="J8" s="21">
-        <v>704</v>
+        <v>9652</v>
       </c>
       <c r="K8" s="23">
-        <v>664</v>
+        <v>8319</v>
       </c>
       <c r="L8" s="25">
-        <v>607</v>
+        <v>7576</v>
       </c>
       <c r="M8" s="27">
-        <v>57</v>
+        <v>742</v>
       </c>
       <c r="N8" s="29">
-        <v>96</v>
+        <v>1275</v>
       </c>
       <c r="O8" s="31">
-        <v>68</v>
+        <v>818</v>
       </c>
       <c r="P8" s="33">
-        <v>28</v>
+        <v>456</v>
       </c>
       <c r="Q8" s="35">
-        <v>366</v>
+        <v>4845</v>
       </c>
       <c r="R8" s="37">
-        <v>163</v>
+        <v>2024</v>
       </c>
       <c r="S8" s="39">
-        <v>203</v>
+        <v>2820</v>
       </c>
       <c r="T8" s="41">
         <v>0</v>
@@ -2224,31 +2224,31 @@
         <v>0</v>
       </c>
       <c r="W8" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X8" s="49">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Y8" s="51">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="Z8" s="53">
-        <v>884</v>
+        <v>11315</v>
       </c>
       <c r="AA8" s="55">
-        <v>449</v>
+        <v>5420</v>
       </c>
       <c r="AB8" s="57">
-        <v>435</v>
+        <v>5894</v>
       </c>
       <c r="AC8" s="59">
-        <v>62</v>
+        <v>815</v>
       </c>
       <c r="AD8" s="61">
-        <v>81</v>
+        <v>1066</v>
       </c>
       <c r="AE8" s="63">
-        <v>-19</v>
+        <v>-251</v>
       </c>
       <c r="AF8" s="65">
         <v>0</v>
@@ -2260,16 +2260,16 @@
         <v>0</v>
       </c>
       <c r="AI8" s="71">
-        <v>55</v>
+        <v>697</v>
       </c>
       <c r="AJ8" s="73">
-        <v>84</v>
+        <v>1022</v>
       </c>
       <c r="AK8" s="75">
-        <v>-29</v>
+        <v>-325</v>
       </c>
       <c r="AL8" s="77">
-        <v>14943</v>
+        <v>187780</v>
       </c>
     </row>
     <row r="9">
@@ -2277,58 +2277,58 @@
         <v>21</v>
       </c>
       <c r="B9" s="5">
-        <v>4614</v>
+        <v>61510</v>
       </c>
       <c r="C9" s="7">
-        <v>4820</v>
+        <v>64165</v>
       </c>
       <c r="D9" s="9">
-        <v>-207</v>
+        <v>-2655</v>
       </c>
       <c r="E9" s="11">
-        <v>12657</v>
+        <v>168953</v>
       </c>
       <c r="F9" s="13">
-        <v>12676</v>
+        <v>170331</v>
       </c>
       <c r="G9" s="15">
-        <v>-20</v>
+        <v>-1379</v>
       </c>
       <c r="H9" s="17">
-        <v>3551</v>
+        <v>48191</v>
       </c>
       <c r="I9" s="19">
-        <v>3321</v>
+        <v>44129</v>
       </c>
       <c r="J9" s="21">
-        <v>230</v>
+        <v>4062</v>
       </c>
       <c r="K9" s="23">
-        <v>1040</v>
+        <v>14026</v>
       </c>
       <c r="L9" s="25">
-        <v>1233</v>
+        <v>16513</v>
       </c>
       <c r="M9" s="27">
-        <v>-194</v>
+        <v>-2487</v>
       </c>
       <c r="N9" s="29">
-        <v>134</v>
+        <v>1846</v>
       </c>
       <c r="O9" s="31">
-        <v>43</v>
+        <v>545</v>
       </c>
       <c r="P9" s="33">
-        <v>92</v>
+        <v>1301</v>
       </c>
       <c r="Q9" s="35">
-        <v>333</v>
+        <v>4573</v>
       </c>
       <c r="R9" s="37">
-        <v>557</v>
+        <v>7337</v>
       </c>
       <c r="S9" s="39">
-        <v>-224</v>
+        <v>-2763</v>
       </c>
       <c r="T9" s="41">
         <v>0</v>
@@ -2340,31 +2340,31 @@
         <v>0</v>
       </c>
       <c r="W9" s="47">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="X9" s="49">
         <v>0</v>
       </c>
       <c r="Y9" s="51">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="Z9" s="53">
-        <v>1278</v>
+        <v>17208</v>
       </c>
       <c r="AA9" s="55">
-        <v>314</v>
+        <v>4188</v>
       </c>
       <c r="AB9" s="57">
-        <v>964</v>
+        <v>13019</v>
       </c>
       <c r="AC9" s="59">
-        <v>765</v>
+        <v>10523</v>
       </c>
       <c r="AD9" s="61">
-        <v>1174</v>
+        <v>15546</v>
       </c>
       <c r="AE9" s="63">
-        <v>-409</v>
+        <v>-5022</v>
       </c>
       <c r="AF9" s="65">
         <v>0</v>
@@ -2376,16 +2376,16 @@
         <v>0</v>
       </c>
       <c r="AI9" s="71">
-        <v>90</v>
+        <v>1215</v>
       </c>
       <c r="AJ9" s="73">
-        <v>93</v>
+        <v>1244</v>
       </c>
       <c r="AK9" s="75">
-        <v>-4</v>
+        <v>-29</v>
       </c>
       <c r="AL9" s="77">
-        <v>20911</v>
+        <v>279869</v>
       </c>
     </row>
     <row r="10">
@@ -2393,58 +2393,58 @@
         <v>22</v>
       </c>
       <c r="B10" s="5">
-        <v>4103</v>
+        <v>49910</v>
       </c>
       <c r="C10" s="7">
-        <v>5524</v>
+        <v>67447</v>
       </c>
       <c r="D10" s="9">
-        <v>-1421</v>
+        <v>-17537</v>
       </c>
       <c r="E10" s="11">
-        <v>14367</v>
+        <v>176677</v>
       </c>
       <c r="F10" s="13">
-        <v>14879</v>
+        <v>183072</v>
       </c>
       <c r="G10" s="15">
-        <v>-512</v>
+        <v>-6394</v>
       </c>
       <c r="H10" s="17">
-        <v>3886</v>
+        <v>47529</v>
       </c>
       <c r="I10" s="19">
-        <v>1984</v>
+        <v>23969</v>
       </c>
       <c r="J10" s="21">
-        <v>1903</v>
+        <v>23561</v>
       </c>
       <c r="K10" s="23">
-        <v>1003</v>
+        <v>12226</v>
       </c>
       <c r="L10" s="25">
-        <v>984</v>
+        <v>11766</v>
       </c>
       <c r="M10" s="27">
-        <v>20</v>
+        <v>459</v>
       </c>
       <c r="N10" s="29">
-        <v>43</v>
+        <v>530</v>
       </c>
       <c r="O10" s="31">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="P10" s="33">
-        <v>29</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="35">
-        <v>511</v>
+        <v>6319</v>
       </c>
       <c r="R10" s="37">
-        <v>113</v>
+        <v>1362</v>
       </c>
       <c r="S10" s="39">
-        <v>398</v>
+        <v>4957</v>
       </c>
       <c r="T10" s="41">
         <v>0</v>
@@ -2456,31 +2456,31 @@
         <v>0</v>
       </c>
       <c r="W10" s="47">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="X10" s="49">
         <v>0</v>
       </c>
       <c r="Y10" s="51">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="Z10" s="53">
-        <v>1385</v>
+        <v>16759</v>
       </c>
       <c r="AA10" s="55">
-        <v>629</v>
+        <v>7761</v>
       </c>
       <c r="AB10" s="57">
-        <v>756</v>
+        <v>8998</v>
       </c>
       <c r="AC10" s="59">
-        <v>941</v>
+        <v>11671</v>
       </c>
       <c r="AD10" s="61">
-        <v>243</v>
+        <v>2913</v>
       </c>
       <c r="AE10" s="63">
-        <v>698</v>
+        <v>8758</v>
       </c>
       <c r="AF10" s="65">
         <v>0</v>
@@ -2492,16 +2492,16 @@
         <v>0</v>
       </c>
       <c r="AI10" s="71">
-        <v>98</v>
+        <v>1216</v>
       </c>
       <c r="AJ10" s="73">
-        <v>68</v>
+        <v>845</v>
       </c>
       <c r="AK10" s="75">
-        <v>30</v>
+        <v>371</v>
       </c>
       <c r="AL10" s="77">
-        <v>22455</v>
+        <v>275333</v>
       </c>
     </row>
     <row r="11">
@@ -2509,58 +2509,58 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <v>2513</v>
+        <v>27885</v>
       </c>
       <c r="C11" s="7">
-        <v>2217</v>
+        <v>24537</v>
       </c>
       <c r="D11" s="9">
-        <v>296</v>
+        <v>3348</v>
       </c>
       <c r="E11" s="11">
-        <v>5332</v>
+        <v>59142</v>
       </c>
       <c r="F11" s="13">
-        <v>4778</v>
+        <v>53117</v>
       </c>
       <c r="G11" s="15">
-        <v>554</v>
+        <v>6024</v>
       </c>
       <c r="H11" s="17">
-        <v>761</v>
+        <v>8432</v>
       </c>
       <c r="I11" s="19">
-        <v>1559</v>
+        <v>17227</v>
       </c>
       <c r="J11" s="21">
-        <v>-798</v>
+        <v>-8796</v>
       </c>
       <c r="K11" s="23">
-        <v>446</v>
+        <v>4927</v>
       </c>
       <c r="L11" s="25">
-        <v>344</v>
+        <v>3778</v>
       </c>
       <c r="M11" s="27">
-        <v>102</v>
+        <v>1149</v>
       </c>
       <c r="N11" s="29">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="O11" s="31">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="P11" s="33">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="35">
-        <v>119</v>
+        <v>1327</v>
       </c>
       <c r="R11" s="37">
-        <v>154</v>
+        <v>1675</v>
       </c>
       <c r="S11" s="39">
-        <v>-36</v>
+        <v>-348</v>
       </c>
       <c r="T11" s="41">
         <v>0</v>
@@ -2581,22 +2581,22 @@
         <v>0</v>
       </c>
       <c r="Z11" s="53">
-        <v>124</v>
+        <v>1374</v>
       </c>
       <c r="AA11" s="55">
-        <v>1005</v>
+        <v>11161</v>
       </c>
       <c r="AB11" s="57">
-        <v>-881</v>
+        <v>-9787</v>
       </c>
       <c r="AC11" s="59">
-        <v>62</v>
+        <v>685</v>
       </c>
       <c r="AD11" s="61">
-        <v>48</v>
+        <v>532</v>
       </c>
       <c r="AE11" s="63">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="AF11" s="65">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="AI11" s="71">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="AJ11" s="73">
-        <v>69</v>
+        <v>768</v>
       </c>
       <c r="AK11" s="75">
-        <v>-52</v>
+        <v>-577</v>
       </c>
       <c r="AL11" s="77">
-        <v>8623</v>
+        <v>95650</v>
       </c>
     </row>
     <row r="12">
@@ -2625,58 +2625,58 @@
         <v>24</v>
       </c>
       <c r="B12" s="5">
-        <v>2932</v>
+        <v>34254</v>
       </c>
       <c r="C12" s="7">
-        <v>2738</v>
+        <v>32203</v>
       </c>
       <c r="D12" s="9">
-        <v>195</v>
+        <v>2051</v>
       </c>
       <c r="E12" s="11">
-        <v>7135</v>
+        <v>83712</v>
       </c>
       <c r="F12" s="13">
-        <v>6477</v>
+        <v>75993</v>
       </c>
       <c r="G12" s="15">
-        <v>657</v>
+        <v>7719</v>
       </c>
       <c r="H12" s="17">
-        <v>1173</v>
+        <v>13808</v>
       </c>
       <c r="I12" s="19">
-        <v>2002</v>
+        <v>23315</v>
       </c>
       <c r="J12" s="21">
-        <v>-829</v>
+        <v>-9507</v>
       </c>
       <c r="K12" s="23">
-        <v>614</v>
+        <v>7180</v>
       </c>
       <c r="L12" s="25">
-        <v>434</v>
+        <v>5041</v>
       </c>
       <c r="M12" s="27">
-        <v>180</v>
+        <v>2139</v>
       </c>
       <c r="N12" s="29">
-        <v>27</v>
+        <v>317</v>
       </c>
       <c r="O12" s="31">
-        <v>47</v>
+        <v>544</v>
       </c>
       <c r="P12" s="33">
-        <v>-20</v>
+        <v>-228</v>
       </c>
       <c r="Q12" s="35">
-        <v>145</v>
+        <v>1717</v>
       </c>
       <c r="R12" s="37">
-        <v>192</v>
+        <v>2242</v>
       </c>
       <c r="S12" s="39">
-        <v>-48</v>
+        <v>-525</v>
       </c>
       <c r="T12" s="41">
         <v>0</v>
@@ -2697,22 +2697,22 @@
         <v>0</v>
       </c>
       <c r="Z12" s="53">
-        <v>296</v>
+        <v>3501</v>
       </c>
       <c r="AA12" s="55">
-        <v>991</v>
+        <v>11566</v>
       </c>
       <c r="AB12" s="57">
-        <v>-695</v>
+        <v>-8065</v>
       </c>
       <c r="AC12" s="59">
-        <v>92</v>
+        <v>1093</v>
       </c>
       <c r="AD12" s="61">
-        <v>338</v>
+        <v>3922</v>
       </c>
       <c r="AE12" s="63">
-        <v>-246</v>
+        <v>-2829</v>
       </c>
       <c r="AF12" s="65">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="AI12" s="71">
-        <v>42</v>
+        <v>503</v>
       </c>
       <c r="AJ12" s="73">
-        <v>66</v>
+        <v>765</v>
       </c>
       <c r="AK12" s="75">
-        <v>-23</v>
+        <v>-263</v>
       </c>
       <c r="AL12" s="77">
-        <v>11283</v>
+        <v>132276</v>
       </c>
     </row>
     <row r="13">
@@ -2741,58 +2741,58 @@
         <v>25</v>
       </c>
       <c r="B13" s="5">
-        <v>3623</v>
+        <v>39748</v>
       </c>
       <c r="C13" s="7">
-        <v>2787</v>
+        <v>30681</v>
       </c>
       <c r="D13" s="9">
-        <v>836</v>
+        <v>9067</v>
       </c>
       <c r="E13" s="11">
-        <v>6033</v>
+        <v>66153</v>
       </c>
       <c r="F13" s="13">
-        <v>5590</v>
+        <v>61304</v>
       </c>
       <c r="G13" s="15">
-        <v>443</v>
+        <v>4848</v>
       </c>
       <c r="H13" s="17">
-        <v>1298</v>
+        <v>14241</v>
       </c>
       <c r="I13" s="19">
-        <v>2586</v>
+        <v>28240</v>
       </c>
       <c r="J13" s="21">
-        <v>-1287</v>
+        <v>-13998</v>
       </c>
       <c r="K13" s="23">
-        <v>613</v>
+        <v>6692</v>
       </c>
       <c r="L13" s="25">
-        <v>586</v>
+        <v>6346</v>
       </c>
       <c r="M13" s="27">
-        <v>27</v>
+        <v>346</v>
       </c>
       <c r="N13" s="29">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="O13" s="31">
-        <v>22</v>
+        <v>244</v>
       </c>
       <c r="P13" s="33">
-        <v>-18</v>
+        <v>-196</v>
       </c>
       <c r="Q13" s="35">
-        <v>160</v>
+        <v>1770</v>
       </c>
       <c r="R13" s="37">
-        <v>130</v>
+        <v>1421</v>
       </c>
       <c r="S13" s="39">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="T13" s="41">
         <v>0</v>
@@ -2804,31 +2804,31 @@
         <v>0</v>
       </c>
       <c r="W13" s="47">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X13" s="49">
         <v>0</v>
       </c>
       <c r="Y13" s="51">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z13" s="53">
-        <v>167</v>
+        <v>1823</v>
       </c>
       <c r="AA13" s="55">
-        <v>1687</v>
+        <v>18456</v>
       </c>
       <c r="AB13" s="57">
-        <v>-1520</v>
+        <v>-16634</v>
       </c>
       <c r="AC13" s="59">
-        <v>353</v>
+        <v>3903</v>
       </c>
       <c r="AD13" s="61">
-        <v>161</v>
+        <v>1773</v>
       </c>
       <c r="AE13" s="63">
-        <v>193</v>
+        <v>2130</v>
       </c>
       <c r="AF13" s="65">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="AI13" s="71">
-        <v>37</v>
+        <v>410</v>
       </c>
       <c r="AJ13" s="73">
-        <v>30</v>
+        <v>327</v>
       </c>
       <c r="AK13" s="75">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="AL13" s="77">
-        <v>10992</v>
+        <v>120552</v>
       </c>
     </row>
     <row r="14">
@@ -2857,94 +2857,94 @@
         <v>26</v>
       </c>
       <c r="B14" s="5">
-        <v>5246</v>
+        <v>68657</v>
       </c>
       <c r="C14" s="7">
-        <v>4593</v>
+        <v>62794</v>
       </c>
       <c r="D14" s="9">
-        <v>653</v>
+        <v>5863</v>
       </c>
       <c r="E14" s="11">
-        <v>12481</v>
+        <v>172975</v>
       </c>
       <c r="F14" s="13">
-        <v>11329</v>
+        <v>157570</v>
       </c>
       <c r="G14" s="15">
-        <v>1151</v>
+        <v>15405</v>
       </c>
       <c r="H14" s="17">
-        <v>2073</v>
+        <v>27888</v>
       </c>
       <c r="I14" s="19">
-        <v>3876</v>
+        <v>49138</v>
       </c>
       <c r="J14" s="21">
-        <v>-1803</v>
+        <v>-21250</v>
       </c>
       <c r="K14" s="23">
-        <v>961</v>
+        <v>12460</v>
       </c>
       <c r="L14" s="25">
-        <v>997</v>
+        <v>13507</v>
       </c>
       <c r="M14" s="27">
-        <v>-36</v>
+        <v>-1046</v>
       </c>
       <c r="N14" s="29">
-        <v>17</v>
+        <v>242</v>
       </c>
       <c r="O14" s="31">
-        <v>228</v>
+        <v>2717</v>
       </c>
       <c r="P14" s="33">
-        <v>-211</v>
+        <v>-2476</v>
       </c>
       <c r="Q14" s="35">
-        <v>190</v>
+        <v>2500</v>
       </c>
       <c r="R14" s="37">
-        <v>564</v>
+        <v>6821</v>
       </c>
       <c r="S14" s="39">
-        <v>-374</v>
+        <v>-4321</v>
       </c>
       <c r="T14" s="41">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="U14" s="43">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="V14" s="45">
-        <v>-1</v>
+        <v>-11</v>
       </c>
       <c r="W14" s="47">
         <v>0</v>
       </c>
       <c r="X14" s="49">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="Y14" s="51">
-        <v>-11</v>
+        <v>-122</v>
       </c>
       <c r="Z14" s="53">
-        <v>747</v>
+        <v>10811</v>
       </c>
       <c r="AA14" s="55">
-        <v>1288</v>
+        <v>15869</v>
       </c>
       <c r="AB14" s="57">
-        <v>-541</v>
+        <v>-5058</v>
       </c>
       <c r="AC14" s="59">
-        <v>157</v>
+        <v>1852</v>
       </c>
       <c r="AD14" s="61">
-        <v>786</v>
+        <v>10068</v>
       </c>
       <c r="AE14" s="63">
-        <v>-629</v>
+        <v>-8217</v>
       </c>
       <c r="AF14" s="65">
         <v>0</v>
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="AI14" s="71">
-        <v>88</v>
+        <v>1226</v>
       </c>
       <c r="AJ14" s="73">
-        <v>90</v>
+        <v>1244</v>
       </c>
       <c r="AK14" s="75">
-        <v>-2</v>
+        <v>-18</v>
       </c>
       <c r="AL14" s="77">
-        <v>19889</v>
+        <v>270745</v>
       </c>
     </row>
     <row r="15">
@@ -2973,94 +2973,94 @@
         <v>27</v>
       </c>
       <c r="B15" s="5">
-        <v>3796</v>
+        <v>57532</v>
       </c>
       <c r="C15" s="7">
-        <v>3972</v>
+        <v>60366</v>
       </c>
       <c r="D15" s="9">
-        <v>-176</v>
+        <v>-2834</v>
       </c>
       <c r="E15" s="11">
-        <v>12382</v>
+        <v>187787</v>
       </c>
       <c r="F15" s="13">
-        <v>13171</v>
+        <v>200140</v>
       </c>
       <c r="G15" s="15">
-        <v>-789</v>
+        <v>-12354</v>
       </c>
       <c r="H15" s="17">
-        <v>2783</v>
+        <v>42742</v>
       </c>
       <c r="I15" s="19">
-        <v>1836</v>
+        <v>27837</v>
       </c>
       <c r="J15" s="21">
-        <v>948</v>
+        <v>14905</v>
       </c>
       <c r="K15" s="23">
-        <v>791</v>
+        <v>12034</v>
       </c>
       <c r="L15" s="25">
-        <v>777</v>
+        <v>11887</v>
       </c>
       <c r="M15" s="27">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="N15" s="29">
-        <v>164</v>
+        <v>2535</v>
       </c>
       <c r="O15" s="31">
-        <v>38</v>
+        <v>573</v>
       </c>
       <c r="P15" s="33">
-        <v>125</v>
+        <v>1962</v>
       </c>
       <c r="Q15" s="35">
-        <v>308</v>
+        <v>4710</v>
       </c>
       <c r="R15" s="37">
-        <v>93</v>
+        <v>1399</v>
       </c>
       <c r="S15" s="39">
-        <v>214</v>
+        <v>3310</v>
       </c>
       <c r="T15" s="41">
         <v>0</v>
       </c>
       <c r="U15" s="43">
+        <v>17</v>
+      </c>
+      <c r="V15" s="45">
+        <v>-17</v>
+      </c>
+      <c r="W15" s="47">
+        <v>0</v>
+      </c>
+      <c r="X15" s="49">
         <v>1</v>
       </c>
-      <c r="V15" s="45">
+      <c r="Y15" s="51">
         <v>-1</v>
       </c>
-      <c r="W15" s="47">
-        <v>0</v>
-      </c>
-      <c r="X15" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="51">
-        <v>0</v>
-      </c>
       <c r="Z15" s="53">
-        <v>1069</v>
+        <v>16475</v>
       </c>
       <c r="AA15" s="55">
-        <v>814</v>
+        <v>12286</v>
       </c>
       <c r="AB15" s="57">
-        <v>255</v>
+        <v>4188</v>
       </c>
       <c r="AC15" s="59">
-        <v>452</v>
+        <v>6988</v>
       </c>
       <c r="AD15" s="61">
-        <v>112</v>
+        <v>1673</v>
       </c>
       <c r="AE15" s="63">
-        <v>340</v>
+        <v>5315</v>
       </c>
       <c r="AF15" s="65">
         <v>0</v>
@@ -3072,16 +3072,16 @@
         <v>0</v>
       </c>
       <c r="AI15" s="71">
-        <v>70</v>
+        <v>1074</v>
       </c>
       <c r="AJ15" s="73">
-        <v>52</v>
+        <v>792</v>
       </c>
       <c r="AK15" s="75">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="AL15" s="77">
-        <v>19031</v>
+        <v>289135</v>
       </c>
     </row>
     <row r="16">
@@ -3089,67 +3089,67 @@
         <v>28</v>
       </c>
       <c r="B16" s="5">
-        <v>2846</v>
+        <v>38382</v>
       </c>
       <c r="C16" s="7">
-        <v>2918</v>
+        <v>39437</v>
       </c>
       <c r="D16" s="9">
-        <v>-72</v>
+        <v>-1055</v>
       </c>
       <c r="E16" s="11">
-        <v>9553</v>
+        <v>128911</v>
       </c>
       <c r="F16" s="13">
-        <v>8446</v>
+        <v>114479</v>
       </c>
       <c r="G16" s="15">
-        <v>1107</v>
+        <v>14432</v>
       </c>
       <c r="H16" s="17">
-        <v>1106</v>
+        <v>14872</v>
       </c>
       <c r="I16" s="19">
-        <v>2065</v>
+        <v>27312</v>
       </c>
       <c r="J16" s="21">
-        <v>-958</v>
+        <v>-12440</v>
       </c>
       <c r="K16" s="23">
-        <v>354</v>
+        <v>4743</v>
       </c>
       <c r="L16" s="25">
-        <v>706</v>
+        <v>9483</v>
       </c>
       <c r="M16" s="27">
-        <v>-352</v>
+        <v>-4740</v>
       </c>
       <c r="N16" s="29">
-        <v>72</v>
+        <v>1009</v>
       </c>
       <c r="O16" s="31">
-        <v>92</v>
+        <v>1233</v>
       </c>
       <c r="P16" s="33">
-        <v>-20</v>
+        <v>-224</v>
       </c>
       <c r="Q16" s="35">
-        <v>84</v>
+        <v>1172</v>
       </c>
       <c r="R16" s="37">
-        <v>276</v>
+        <v>3586</v>
       </c>
       <c r="S16" s="39">
-        <v>-192</v>
+        <v>-2415</v>
       </c>
       <c r="T16" s="41">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="U16" s="43">
         <v>0</v>
       </c>
       <c r="V16" s="45">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="W16" s="47">
         <v>0</v>
@@ -3161,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="Z16" s="53">
-        <v>545</v>
+        <v>7236</v>
       </c>
       <c r="AA16" s="55">
-        <v>754</v>
+        <v>9851</v>
       </c>
       <c r="AB16" s="57">
-        <v>-210</v>
+        <v>-2615</v>
       </c>
       <c r="AC16" s="59">
-        <v>50</v>
+        <v>682</v>
       </c>
       <c r="AD16" s="61">
-        <v>237</v>
+        <v>3159</v>
       </c>
       <c r="AE16" s="63">
-        <v>-187</v>
+        <v>-2477</v>
       </c>
       <c r="AF16" s="65">
         <v>0</v>
@@ -3188,16 +3188,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="71">
-        <v>55</v>
+        <v>776</v>
       </c>
       <c r="AJ16" s="73">
-        <v>132</v>
+        <v>1714</v>
       </c>
       <c r="AK16" s="75">
-        <v>-77</v>
+        <v>-938</v>
       </c>
       <c r="AL16" s="77">
-        <v>13560</v>
+        <v>182942</v>
       </c>
     </row>
     <row r="17">
@@ -3205,94 +3205,94 @@
         <v>29</v>
       </c>
       <c r="B17" s="5">
-        <v>2663</v>
+        <v>39404</v>
       </c>
       <c r="C17" s="7">
-        <v>2925</v>
+        <v>43346</v>
       </c>
       <c r="D17" s="9">
-        <v>-262</v>
+        <v>-3942</v>
       </c>
       <c r="E17" s="11">
-        <v>8378</v>
+        <v>127642</v>
       </c>
       <c r="F17" s="13">
-        <v>9363</v>
+        <v>142386</v>
       </c>
       <c r="G17" s="15">
-        <v>-985</v>
+        <v>-14744</v>
       </c>
       <c r="H17" s="17">
-        <v>2577</v>
+        <v>38792</v>
       </c>
       <c r="I17" s="19">
-        <v>1289</v>
+        <v>19491</v>
       </c>
       <c r="J17" s="21">
-        <v>1287</v>
+        <v>19301</v>
       </c>
       <c r="K17" s="23">
-        <v>552</v>
+        <v>8152</v>
       </c>
       <c r="L17" s="25">
-        <v>528</v>
+        <v>8114</v>
       </c>
       <c r="M17" s="27">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="N17" s="29">
-        <v>129</v>
+        <v>2118</v>
       </c>
       <c r="O17" s="31">
-        <v>134</v>
+        <v>1997</v>
       </c>
       <c r="P17" s="33">
-        <v>-5</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="35">
-        <v>179</v>
+        <v>2827</v>
       </c>
       <c r="R17" s="37">
-        <v>120</v>
+        <v>1831</v>
       </c>
       <c r="S17" s="39">
-        <v>58</v>
+        <v>995</v>
       </c>
       <c r="T17" s="41">
-        <v>31</v>
+        <v>493</v>
       </c>
       <c r="U17" s="43">
-        <v>31</v>
+        <v>499</v>
       </c>
       <c r="V17" s="45">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="W17" s="47">
         <v>0</v>
       </c>
       <c r="X17" s="49">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="Y17" s="51">
-        <v>-2</v>
+        <v>-22</v>
       </c>
       <c r="Z17" s="53">
-        <v>1302</v>
+        <v>19784</v>
       </c>
       <c r="AA17" s="55">
-        <v>255</v>
+        <v>3902</v>
       </c>
       <c r="AB17" s="57">
-        <v>1047</v>
+        <v>15882</v>
       </c>
       <c r="AC17" s="59">
-        <v>384</v>
+        <v>5418</v>
       </c>
       <c r="AD17" s="61">
-        <v>220</v>
+        <v>3125</v>
       </c>
       <c r="AE17" s="63">
-        <v>164</v>
+        <v>2294</v>
       </c>
       <c r="AF17" s="65">
         <v>0</v>
@@ -3304,16 +3304,16 @@
         <v>0</v>
       </c>
       <c r="AI17" s="71">
-        <v>62</v>
+        <v>997</v>
       </c>
       <c r="AJ17" s="73">
-        <v>103</v>
+        <v>1612</v>
       </c>
       <c r="AK17" s="75">
-        <v>-40</v>
+        <v>-615</v>
       </c>
       <c r="AL17" s="77">
-        <v>13681</v>
+        <v>206835</v>
       </c>
     </row>
     <row r="18">
@@ -3321,58 +3321,58 @@
         <v>30</v>
       </c>
       <c r="B18" s="5">
-        <v>1985</v>
+        <v>31024</v>
       </c>
       <c r="C18" s="7">
-        <v>1962</v>
+        <v>30567</v>
       </c>
       <c r="D18" s="9">
-        <v>24</v>
+        <v>457</v>
       </c>
       <c r="E18" s="11">
-        <v>4874</v>
+        <v>76035</v>
       </c>
       <c r="F18" s="13">
-        <v>5515</v>
+        <v>86130</v>
       </c>
       <c r="G18" s="15">
-        <v>-641</v>
+        <v>-10094</v>
       </c>
       <c r="H18" s="17">
-        <v>1682</v>
+        <v>26132</v>
       </c>
       <c r="I18" s="19">
-        <v>1050</v>
+        <v>16273</v>
       </c>
       <c r="J18" s="21">
-        <v>631</v>
+        <v>9859</v>
       </c>
       <c r="K18" s="23">
-        <v>708</v>
+        <v>10946</v>
       </c>
       <c r="L18" s="25">
-        <v>369</v>
+        <v>5720</v>
       </c>
       <c r="M18" s="27">
-        <v>339</v>
+        <v>5225</v>
       </c>
       <c r="N18" s="29">
-        <v>18</v>
+        <v>277</v>
       </c>
       <c r="O18" s="31">
-        <v>98</v>
+        <v>1508</v>
       </c>
       <c r="P18" s="33">
-        <v>-81</v>
+        <v>-1231</v>
       </c>
       <c r="Q18" s="35">
-        <v>36</v>
+        <v>575</v>
       </c>
       <c r="R18" s="37">
-        <v>64</v>
+        <v>1001</v>
       </c>
       <c r="S18" s="39">
-        <v>-28</v>
+        <v>-426</v>
       </c>
       <c r="T18" s="41">
         <v>0</v>
@@ -3387,28 +3387,28 @@
         <v>0</v>
       </c>
       <c r="X18" s="49">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="Y18" s="51">
-        <v>-6</v>
+        <v>-97</v>
       </c>
       <c r="Z18" s="53">
-        <v>805</v>
+        <v>12554</v>
       </c>
       <c r="AA18" s="55">
-        <v>419</v>
+        <v>6520</v>
       </c>
       <c r="AB18" s="57">
-        <v>386</v>
+        <v>6034</v>
       </c>
       <c r="AC18" s="59">
-        <v>115</v>
+        <v>1780</v>
       </c>
       <c r="AD18" s="61">
-        <v>94</v>
+        <v>1427</v>
       </c>
       <c r="AE18" s="63">
-        <v>21</v>
+        <v>353</v>
       </c>
       <c r="AF18" s="65">
         <v>0</v>
@@ -3420,16 +3420,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="71">
-        <v>28</v>
+        <v>447</v>
       </c>
       <c r="AJ18" s="73">
-        <v>42</v>
+        <v>668</v>
       </c>
       <c r="AK18" s="75">
-        <v>-14</v>
+        <v>-221</v>
       </c>
       <c r="AL18" s="77">
-        <v>8569</v>
+        <v>133638</v>
       </c>
     </row>
     <row r="19">
@@ -3437,67 +3437,67 @@
         <v>31</v>
       </c>
       <c r="B19" s="5">
-        <v>1848</v>
+        <v>29474</v>
       </c>
       <c r="C19" s="7">
-        <v>1309</v>
+        <v>20853</v>
       </c>
       <c r="D19" s="9">
-        <v>539</v>
+        <v>8621</v>
       </c>
       <c r="E19" s="11">
-        <v>6085</v>
+        <v>96982</v>
       </c>
       <c r="F19" s="13">
-        <v>5524</v>
+        <v>88107</v>
       </c>
       <c r="G19" s="15">
-        <v>561</v>
+        <v>8875</v>
       </c>
       <c r="H19" s="17">
-        <v>876</v>
+        <v>13979</v>
       </c>
       <c r="I19" s="19">
-        <v>1954</v>
+        <v>31140</v>
       </c>
       <c r="J19" s="21">
-        <v>-1078</v>
+        <v>-17161</v>
       </c>
       <c r="K19" s="23">
-        <v>356</v>
+        <v>5684</v>
       </c>
       <c r="L19" s="25">
-        <v>771</v>
+        <v>12320</v>
       </c>
       <c r="M19" s="27">
-        <v>-415</v>
+        <v>-6636</v>
       </c>
       <c r="N19" s="29">
-        <v>24</v>
+        <v>390</v>
       </c>
       <c r="O19" s="31">
-        <v>73</v>
+        <v>1157</v>
       </c>
       <c r="P19" s="33">
-        <v>-49</v>
+        <v>-767</v>
       </c>
       <c r="Q19" s="35">
-        <v>42</v>
+        <v>665</v>
       </c>
       <c r="R19" s="37">
-        <v>187</v>
+        <v>2961</v>
       </c>
       <c r="S19" s="39">
-        <v>-146</v>
+        <v>-2296</v>
       </c>
       <c r="T19" s="41">
         <v>0</v>
       </c>
       <c r="U19" s="43">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="V19" s="45">
-        <v>-7</v>
+        <v>-117</v>
       </c>
       <c r="W19" s="47">
         <v>0</v>
@@ -3509,22 +3509,22 @@
         <v>0</v>
       </c>
       <c r="Z19" s="53">
-        <v>405</v>
+        <v>6446</v>
       </c>
       <c r="AA19" s="55">
-        <v>814</v>
+        <v>12974</v>
       </c>
       <c r="AB19" s="57">
-        <v>-409</v>
+        <v>-6528</v>
       </c>
       <c r="AC19" s="59">
-        <v>49</v>
+        <v>795</v>
       </c>
       <c r="AD19" s="61">
-        <v>101</v>
+        <v>1612</v>
       </c>
       <c r="AE19" s="63">
-        <v>-52</v>
+        <v>-817</v>
       </c>
       <c r="AF19" s="65">
         <v>0</v>
@@ -3536,16 +3536,16 @@
         <v>0</v>
       </c>
       <c r="AI19" s="71">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="AJ19" s="73">
-        <v>31</v>
+        <v>495</v>
       </c>
       <c r="AK19" s="75">
-        <v>-21</v>
+        <v>-335</v>
       </c>
       <c r="AL19" s="77">
-        <v>8818</v>
+        <v>140595</v>
       </c>
     </row>
     <row r="20">
@@ -3553,94 +3553,94 @@
         <v>32</v>
       </c>
       <c r="B20" s="5">
-        <v>4165</v>
+        <v>67846</v>
       </c>
       <c r="C20" s="7">
-        <v>2620</v>
+        <v>42651</v>
       </c>
       <c r="D20" s="9">
-        <v>1544</v>
+        <v>25195</v>
       </c>
       <c r="E20" s="11">
-        <v>9122</v>
+        <v>148614</v>
       </c>
       <c r="F20" s="13">
-        <v>10696</v>
+        <v>174573</v>
       </c>
       <c r="G20" s="15">
-        <v>-1574</v>
+        <v>-25958</v>
       </c>
       <c r="H20" s="17">
-        <v>1770</v>
+        <v>28855</v>
       </c>
       <c r="I20" s="19">
-        <v>1745</v>
+        <v>28168</v>
       </c>
       <c r="J20" s="21">
+        <v>687</v>
+      </c>
+      <c r="K20" s="23">
+        <v>10931</v>
+      </c>
+      <c r="L20" s="25">
+        <v>8192</v>
+      </c>
+      <c r="M20" s="27">
+        <v>2740</v>
+      </c>
+      <c r="N20" s="29">
+        <v>1105</v>
+      </c>
+      <c r="O20" s="31">
+        <v>479</v>
+      </c>
+      <c r="P20" s="33">
+        <v>626</v>
+      </c>
+      <c r="Q20" s="35">
+        <v>2217</v>
+      </c>
+      <c r="R20" s="37">
+        <v>5673</v>
+      </c>
+      <c r="S20" s="39">
+        <v>-3456</v>
+      </c>
+      <c r="T20" s="41">
+        <v>119</v>
+      </c>
+      <c r="U20" s="43">
+        <v>245</v>
+      </c>
+      <c r="V20" s="45">
+        <v>-125</v>
+      </c>
+      <c r="W20" s="47">
+        <v>0</v>
+      </c>
+      <c r="X20" s="49">
         <v>25</v>
       </c>
-      <c r="K20" s="23">
-        <v>666</v>
-      </c>
-      <c r="L20" s="25">
-        <v>504</v>
-      </c>
-      <c r="M20" s="27">
-        <v>162</v>
-      </c>
-      <c r="N20" s="29">
-        <v>68</v>
-      </c>
-      <c r="O20" s="31">
-        <v>30</v>
-      </c>
-      <c r="P20" s="33">
-        <v>38</v>
-      </c>
-      <c r="Q20" s="35">
-        <v>136</v>
-      </c>
-      <c r="R20" s="37">
-        <v>354</v>
-      </c>
-      <c r="S20" s="39">
-        <v>-218</v>
-      </c>
-      <c r="T20" s="41">
-        <v>7</v>
-      </c>
-      <c r="U20" s="43">
-        <v>15</v>
-      </c>
-      <c r="V20" s="45">
-        <v>-8</v>
-      </c>
-      <c r="W20" s="47">
-        <v>0</v>
-      </c>
-      <c r="X20" s="49">
-        <v>2</v>
-      </c>
       <c r="Y20" s="51">
-        <v>-2</v>
+        <v>-25</v>
       </c>
       <c r="Z20" s="53">
-        <v>839</v>
+        <v>13619</v>
       </c>
       <c r="AA20" s="55">
-        <v>598</v>
+        <v>9646</v>
       </c>
       <c r="AB20" s="57">
-        <v>241</v>
+        <v>3973</v>
       </c>
       <c r="AC20" s="59">
-        <v>53</v>
+        <v>863</v>
       </c>
       <c r="AD20" s="61">
-        <v>243</v>
+        <v>3908</v>
       </c>
       <c r="AE20" s="63">
-        <v>-190</v>
+        <v>-3045</v>
       </c>
       <c r="AF20" s="65">
         <v>0</v>
@@ -3652,16 +3652,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="71">
-        <v>65</v>
+        <v>1064</v>
       </c>
       <c r="AJ20" s="73">
-        <v>60</v>
+        <v>987</v>
       </c>
       <c r="AK20" s="75">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="AL20" s="77">
-        <v>15121</v>
+        <v>246379</v>
       </c>
     </row>
     <row r="21">
@@ -3669,58 +3669,58 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>2145</v>
+        <v>32684</v>
       </c>
       <c r="C21" s="7">
-        <v>1572</v>
+        <v>23737</v>
       </c>
       <c r="D21" s="9">
-        <v>572</v>
+        <v>8947</v>
       </c>
       <c r="E21" s="11">
-        <v>6602</v>
+        <v>99739</v>
       </c>
       <c r="F21" s="13">
-        <v>6736</v>
+        <v>102132</v>
       </c>
       <c r="G21" s="15">
-        <v>-134</v>
+        <v>-2393</v>
       </c>
       <c r="H21" s="17">
-        <v>1358</v>
+        <v>20592</v>
       </c>
       <c r="I21" s="19">
-        <v>1813</v>
+        <v>27408</v>
       </c>
       <c r="J21" s="21">
-        <v>-455</v>
+        <v>-6815</v>
       </c>
       <c r="K21" s="23">
-        <v>363</v>
+        <v>5482</v>
       </c>
       <c r="L21" s="25">
-        <v>658</v>
+        <v>9963</v>
       </c>
       <c r="M21" s="27">
-        <v>-295</v>
+        <v>-4481</v>
       </c>
       <c r="N21" s="29">
-        <v>46</v>
+        <v>707</v>
       </c>
       <c r="O21" s="31">
-        <v>102</v>
+        <v>1518</v>
       </c>
       <c r="P21" s="33">
-        <v>-55</v>
+        <v>-811</v>
       </c>
       <c r="Q21" s="35">
-        <v>95</v>
+        <v>1453</v>
       </c>
       <c r="R21" s="37">
-        <v>244</v>
+        <v>3664</v>
       </c>
       <c r="S21" s="39">
-        <v>-149</v>
+        <v>-2212</v>
       </c>
       <c r="T21" s="41">
         <v>0</v>
@@ -3732,31 +3732,31 @@
         <v>0</v>
       </c>
       <c r="W21" s="47">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="X21" s="49">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="Y21" s="51">
-        <v>-6</v>
+        <v>-94</v>
       </c>
       <c r="Z21" s="53">
-        <v>818</v>
+        <v>12403</v>
       </c>
       <c r="AA21" s="55">
-        <v>423</v>
+        <v>6360</v>
       </c>
       <c r="AB21" s="57">
-        <v>395</v>
+        <v>6044</v>
       </c>
       <c r="AC21" s="59">
-        <v>34</v>
+        <v>519</v>
       </c>
       <c r="AD21" s="61">
-        <v>379</v>
+        <v>5781</v>
       </c>
       <c r="AE21" s="63">
-        <v>-345</v>
+        <v>-5262</v>
       </c>
       <c r="AF21" s="65">
         <v>0</v>
@@ -3768,16 +3768,16 @@
         <v>0</v>
       </c>
       <c r="AI21" s="71">
-        <v>67</v>
+        <v>1024</v>
       </c>
       <c r="AJ21" s="73">
-        <v>51</v>
+        <v>762</v>
       </c>
       <c r="AK21" s="75">
-        <v>17</v>
+        <v>262</v>
       </c>
       <c r="AL21" s="77">
-        <v>10172</v>
+        <v>154039</v>
       </c>
     </row>
     <row r="22">
@@ -3785,94 +3785,94 @@
         <v>34</v>
       </c>
       <c r="B22" s="5">
-        <v>3648</v>
+        <v>60400</v>
       </c>
       <c r="C22" s="7">
-        <v>3898</v>
+        <v>64773</v>
       </c>
       <c r="D22" s="9">
-        <v>-250</v>
+        <v>-4373</v>
       </c>
       <c r="E22" s="11">
-        <v>16591</v>
+        <v>275487</v>
       </c>
       <c r="F22" s="13">
-        <v>16635</v>
+        <v>277195</v>
       </c>
       <c r="G22" s="15">
-        <v>-44</v>
+        <v>-1708</v>
       </c>
       <c r="H22" s="17">
-        <v>2986</v>
+        <v>49872</v>
       </c>
       <c r="I22" s="19">
-        <v>2556</v>
+        <v>41671</v>
       </c>
       <c r="J22" s="21">
-        <v>430</v>
+        <v>8201</v>
       </c>
       <c r="K22" s="23">
-        <v>960</v>
+        <v>15966</v>
       </c>
       <c r="L22" s="25">
-        <v>1035</v>
+        <v>17134</v>
       </c>
       <c r="M22" s="27">
-        <v>-76</v>
+        <v>-1169</v>
       </c>
       <c r="N22" s="29">
-        <v>78</v>
+        <v>1323</v>
       </c>
       <c r="O22" s="31">
-        <v>114</v>
+        <v>1891</v>
       </c>
       <c r="P22" s="33">
-        <v>-36</v>
+        <v>-568</v>
       </c>
       <c r="Q22" s="35">
-        <v>352</v>
+        <v>5938</v>
       </c>
       <c r="R22" s="37">
-        <v>357</v>
+        <v>5701</v>
       </c>
       <c r="S22" s="39">
-        <v>-5</v>
+        <v>237</v>
       </c>
       <c r="T22" s="41">
         <v>0</v>
       </c>
       <c r="U22" s="43">
-        <v>23</v>
+        <v>395</v>
       </c>
       <c r="V22" s="45">
-        <v>-23</v>
+        <v>-395</v>
       </c>
       <c r="W22" s="47">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="X22" s="49">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="Y22" s="51">
-        <v>-11</v>
+        <v>-178</v>
       </c>
       <c r="Z22" s="53">
-        <v>1464</v>
+        <v>24418</v>
       </c>
       <c r="AA22" s="55">
-        <v>783</v>
+        <v>12590</v>
       </c>
       <c r="AB22" s="57">
-        <v>681</v>
+        <v>11828</v>
       </c>
       <c r="AC22" s="59">
-        <v>131</v>
+        <v>2215</v>
       </c>
       <c r="AD22" s="61">
-        <v>232</v>
+        <v>3770</v>
       </c>
       <c r="AE22" s="63">
-        <v>-101</v>
+        <v>-1555</v>
       </c>
       <c r="AF22" s="65">
         <v>0</v>
@@ -3884,16 +3884,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="71">
-        <v>141</v>
+        <v>2387</v>
       </c>
       <c r="AJ22" s="73">
-        <v>277</v>
+        <v>4507</v>
       </c>
       <c r="AK22" s="75">
-        <v>-136</v>
+        <v>-2120</v>
       </c>
       <c r="AL22" s="77">
-        <v>23366</v>
+        <v>388146</v>
       </c>
     </row>
     <row r="23">
@@ -3901,58 +3901,58 @@
         <v>35</v>
       </c>
       <c r="B23" s="5">
-        <v>2088</v>
+        <v>31991</v>
       </c>
       <c r="C23" s="7">
-        <v>2465</v>
+        <v>38039</v>
       </c>
       <c r="D23" s="9">
-        <v>-377</v>
+        <v>-6048</v>
       </c>
       <c r="E23" s="11">
-        <v>7903</v>
+        <v>121864</v>
       </c>
       <c r="F23" s="13">
-        <v>8020</v>
+        <v>123702</v>
       </c>
       <c r="G23" s="15">
-        <v>-116</v>
+        <v>-1838</v>
       </c>
       <c r="H23" s="17">
-        <v>1774</v>
+        <v>27485</v>
       </c>
       <c r="I23" s="19">
-        <v>1152</v>
+        <v>17611</v>
       </c>
       <c r="J23" s="21">
-        <v>622</v>
+        <v>9874</v>
       </c>
       <c r="K23" s="23">
-        <v>779</v>
+        <v>11971</v>
       </c>
       <c r="L23" s="25">
-        <v>621</v>
+        <v>9527</v>
       </c>
       <c r="M23" s="27">
-        <v>158</v>
+        <v>2444</v>
       </c>
       <c r="N23" s="29">
-        <v>96</v>
+        <v>1494</v>
       </c>
       <c r="O23" s="31">
-        <v>43</v>
+        <v>662</v>
       </c>
       <c r="P23" s="33">
-        <v>53</v>
+        <v>832</v>
       </c>
       <c r="Q23" s="35">
-        <v>169</v>
+        <v>2615</v>
       </c>
       <c r="R23" s="37">
-        <v>122</v>
+        <v>1892</v>
       </c>
       <c r="S23" s="39">
-        <v>47</v>
+        <v>723</v>
       </c>
       <c r="T23" s="41">
         <v>0</v>
@@ -3964,31 +3964,31 @@
         <v>0</v>
       </c>
       <c r="W23" s="47">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X23" s="49">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="Y23" s="51">
-        <v>-4</v>
+        <v>-57</v>
       </c>
       <c r="Z23" s="53">
-        <v>595</v>
+        <v>9248</v>
       </c>
       <c r="AA23" s="55">
-        <v>329</v>
+        <v>4985</v>
       </c>
       <c r="AB23" s="57">
-        <v>265</v>
+        <v>4263</v>
       </c>
       <c r="AC23" s="59">
-        <v>135</v>
+        <v>2149</v>
       </c>
       <c r="AD23" s="61">
-        <v>32</v>
+        <v>480</v>
       </c>
       <c r="AE23" s="63">
-        <v>103</v>
+        <v>1669</v>
       </c>
       <c r="AF23" s="65">
         <v>0</v>
@@ -4000,16 +4000,16 @@
         <v>0</v>
       </c>
       <c r="AI23" s="71">
-        <v>135</v>
+        <v>2108</v>
       </c>
       <c r="AJ23" s="73">
-        <v>265</v>
+        <v>4096</v>
       </c>
       <c r="AK23" s="75">
-        <v>-130</v>
+        <v>-1989</v>
       </c>
       <c r="AL23" s="77">
-        <v>11901</v>
+        <v>183448</v>
       </c>
     </row>
     <row r="24">
@@ -4017,94 +4017,94 @@
         <v>36</v>
       </c>
       <c r="B24" s="5">
-        <v>2845</v>
+        <v>44352</v>
       </c>
       <c r="C24" s="7">
-        <v>3212</v>
+        <v>50889</v>
       </c>
       <c r="D24" s="9">
-        <v>-367</v>
+        <v>-6537</v>
       </c>
       <c r="E24" s="11">
-        <v>12706</v>
+        <v>201656</v>
       </c>
       <c r="F24" s="13">
-        <v>11891</v>
+        <v>188731</v>
       </c>
       <c r="G24" s="15">
-        <v>815</v>
+        <v>12925</v>
       </c>
       <c r="H24" s="17">
-        <v>2033</v>
+        <v>32504</v>
       </c>
       <c r="I24" s="19">
-        <v>2515</v>
+        <v>39386</v>
       </c>
       <c r="J24" s="21">
-        <v>-482</v>
+        <v>-6882</v>
       </c>
       <c r="K24" s="23">
-        <v>746</v>
+        <v>11905</v>
       </c>
       <c r="L24" s="25">
-        <v>863</v>
+        <v>13552</v>
       </c>
       <c r="M24" s="27">
-        <v>-118</v>
+        <v>-1647</v>
       </c>
       <c r="N24" s="29">
-        <v>85</v>
+        <v>1340</v>
       </c>
       <c r="O24" s="31">
-        <v>91</v>
+        <v>1420</v>
       </c>
       <c r="P24" s="33">
-        <v>-6</v>
+        <v>-80</v>
       </c>
       <c r="Q24" s="35">
-        <v>477</v>
+        <v>7631</v>
       </c>
       <c r="R24" s="37">
-        <v>392</v>
+        <v>6099</v>
       </c>
       <c r="S24" s="39">
-        <v>86</v>
+        <v>1532</v>
       </c>
       <c r="T24" s="41">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="U24" s="43">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="V24" s="45">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="W24" s="47">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="X24" s="49">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="Y24" s="51">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="Z24" s="53">
-        <v>591</v>
+        <v>9495</v>
       </c>
       <c r="AA24" s="55">
-        <v>1008</v>
+        <v>15849</v>
       </c>
       <c r="AB24" s="57">
-        <v>-417</v>
+        <v>-6354</v>
       </c>
       <c r="AC24" s="59">
-        <v>114</v>
+        <v>1831</v>
       </c>
       <c r="AD24" s="61">
-        <v>147</v>
+        <v>2261</v>
       </c>
       <c r="AE24" s="63">
-        <v>-33</v>
+        <v>-430</v>
       </c>
       <c r="AF24" s="65">
         <v>0</v>
@@ -4116,16 +4116,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="71">
-        <v>98</v>
+        <v>1509</v>
       </c>
       <c r="AJ24" s="73">
-        <v>64</v>
+        <v>1014</v>
       </c>
       <c r="AK24" s="75">
-        <v>35</v>
+        <v>494</v>
       </c>
       <c r="AL24" s="77">
-        <v>17682</v>
+        <v>280020</v>
       </c>
     </row>
     <row r="25">
@@ -4133,94 +4133,94 @@
         <v>37</v>
       </c>
       <c r="B25" s="5">
-        <v>2586</v>
+        <v>43792</v>
       </c>
       <c r="C25" s="7">
-        <v>3537</v>
+        <v>59835</v>
       </c>
       <c r="D25" s="9">
-        <v>-951</v>
+        <v>-16043</v>
       </c>
       <c r="E25" s="11">
-        <v>12975</v>
+        <v>219340</v>
       </c>
       <c r="F25" s="13">
-        <v>12035</v>
+        <v>203831</v>
       </c>
       <c r="G25" s="15">
-        <v>940</v>
+        <v>15509</v>
       </c>
       <c r="H25" s="17">
-        <v>1668</v>
+        <v>28380</v>
       </c>
       <c r="I25" s="19">
-        <v>1653</v>
+        <v>27797</v>
       </c>
       <c r="J25" s="21">
-        <v>14</v>
+        <v>583</v>
       </c>
       <c r="K25" s="23">
-        <v>576</v>
+        <v>9760</v>
       </c>
       <c r="L25" s="25">
-        <v>728</v>
+        <v>12325</v>
       </c>
       <c r="M25" s="27">
-        <v>-152</v>
+        <v>-2566</v>
       </c>
       <c r="N25" s="29">
-        <v>21</v>
+        <v>358</v>
       </c>
       <c r="O25" s="31">
-        <v>125</v>
+        <v>2079</v>
       </c>
       <c r="P25" s="33">
-        <v>-103</v>
+        <v>-1721</v>
       </c>
       <c r="Q25" s="35">
-        <v>516</v>
+        <v>8807</v>
       </c>
       <c r="R25" s="37">
-        <v>242</v>
+        <v>4060</v>
       </c>
       <c r="S25" s="39">
-        <v>274</v>
+        <v>4747</v>
       </c>
       <c r="T25" s="41">
         <v>0</v>
       </c>
       <c r="U25" s="43">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="V25" s="45">
-        <v>-3</v>
+        <v>-52</v>
       </c>
       <c r="W25" s="47">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="X25" s="49">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="Y25" s="51">
-        <v>-5</v>
+        <v>-87</v>
       </c>
       <c r="Z25" s="53">
-        <v>502</v>
+        <v>8573</v>
       </c>
       <c r="AA25" s="55">
-        <v>473</v>
+        <v>7909</v>
       </c>
       <c r="AB25" s="57">
-        <v>29</v>
+        <v>665</v>
       </c>
       <c r="AC25" s="59">
-        <v>50</v>
+        <v>843</v>
       </c>
       <c r="AD25" s="61">
-        <v>75</v>
+        <v>1246</v>
       </c>
       <c r="AE25" s="63">
-        <v>-25</v>
+        <v>-403</v>
       </c>
       <c r="AF25" s="65">
         <v>0</v>
@@ -4232,16 +4232,16 @@
         <v>0</v>
       </c>
       <c r="AI25" s="71">
-        <v>150</v>
+        <v>2525</v>
       </c>
       <c r="AJ25" s="73">
-        <v>153</v>
+        <v>2574</v>
       </c>
       <c r="AK25" s="75">
-        <v>-3</v>
+        <v>-49</v>
       </c>
       <c r="AL25" s="77">
-        <v>17378</v>
+        <v>294037</v>
       </c>
     </row>
     <row r="26">
@@ -4249,94 +4249,94 @@
         <v>38</v>
       </c>
       <c r="B26" s="5">
-        <v>3805</v>
+        <v>71255</v>
       </c>
       <c r="C26" s="7">
-        <v>4834</v>
+        <v>89924</v>
       </c>
       <c r="D26" s="9">
-        <v>-1030</v>
+        <v>-18669</v>
       </c>
       <c r="E26" s="11">
-        <v>19470</v>
+        <v>364064</v>
       </c>
       <c r="F26" s="13">
-        <v>18237</v>
+        <v>342013</v>
       </c>
       <c r="G26" s="15">
-        <v>1234</v>
+        <v>22051</v>
       </c>
       <c r="H26" s="17">
-        <v>1896</v>
+        <v>35493</v>
       </c>
       <c r="I26" s="19">
-        <v>2156</v>
+        <v>39987</v>
       </c>
       <c r="J26" s="21">
-        <v>-261</v>
+        <v>-4494</v>
       </c>
       <c r="K26" s="23">
-        <v>712</v>
+        <v>13370</v>
       </c>
       <c r="L26" s="25">
-        <v>1041</v>
+        <v>19259</v>
       </c>
       <c r="M26" s="27">
-        <v>-329</v>
+        <v>-5889</v>
       </c>
       <c r="N26" s="29">
-        <v>60</v>
+        <v>1129</v>
       </c>
       <c r="O26" s="31">
-        <v>83</v>
+        <v>1513</v>
       </c>
       <c r="P26" s="33">
-        <v>-23</v>
+        <v>-384</v>
       </c>
       <c r="Q26" s="35">
-        <v>159</v>
+        <v>2979</v>
       </c>
       <c r="R26" s="37">
-        <v>141</v>
+        <v>2640</v>
       </c>
       <c r="S26" s="39">
-        <v>18</v>
+        <v>339</v>
       </c>
       <c r="T26" s="41">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="U26" s="43">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="V26" s="45">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="W26" s="47">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="X26" s="49">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="Y26" s="51">
-        <v>-6</v>
+        <v>-111</v>
       </c>
       <c r="Z26" s="53">
-        <v>885</v>
+        <v>16515</v>
       </c>
       <c r="AA26" s="55">
-        <v>733</v>
+        <v>13620</v>
       </c>
       <c r="AB26" s="57">
-        <v>152</v>
+        <v>2895</v>
       </c>
       <c r="AC26" s="59">
-        <v>73</v>
+        <v>1348</v>
       </c>
       <c r="AD26" s="61">
-        <v>150</v>
+        <v>2802</v>
       </c>
       <c r="AE26" s="63">
-        <v>-77</v>
+        <v>-1454</v>
       </c>
       <c r="AF26" s="65">
         <v>0</v>
@@ -4348,16 +4348,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="71">
-        <v>196</v>
+        <v>3690</v>
       </c>
       <c r="AJ26" s="73">
-        <v>140</v>
+        <v>2579</v>
       </c>
       <c r="AK26" s="75">
-        <v>56</v>
+        <v>1111</v>
       </c>
       <c r="AL26" s="77">
-        <v>25367</v>
+        <v>474502</v>
       </c>
     </row>
     <row r="27">
@@ -4365,94 +4365,94 @@
         <v>39</v>
       </c>
       <c r="B27" s="5">
-        <v>8173</v>
+        <v>151519</v>
       </c>
       <c r="C27" s="7">
-        <v>6185</v>
+        <v>115044</v>
       </c>
       <c r="D27" s="9">
-        <v>1988</v>
+        <v>36475</v>
       </c>
       <c r="E27" s="11">
-        <v>41607</v>
+        <v>772884</v>
       </c>
       <c r="F27" s="13">
-        <v>44751</v>
+        <v>831153</v>
       </c>
       <c r="G27" s="15">
-        <v>-3144</v>
+        <v>-58269</v>
       </c>
       <c r="H27" s="17">
-        <v>3476</v>
+        <v>63945</v>
       </c>
       <c r="I27" s="19">
-        <v>2395</v>
+        <v>43455</v>
       </c>
       <c r="J27" s="21">
-        <v>1081</v>
+        <v>20490</v>
       </c>
       <c r="K27" s="23">
-        <v>1286</v>
+        <v>23455</v>
       </c>
       <c r="L27" s="25">
-        <v>770</v>
+        <v>14074</v>
       </c>
       <c r="M27" s="27">
-        <v>516</v>
+        <v>9382</v>
       </c>
       <c r="N27" s="29">
-        <v>255</v>
+        <v>4728</v>
       </c>
       <c r="O27" s="31">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="P27" s="33">
-        <v>238</v>
+        <v>4426</v>
       </c>
       <c r="Q27" s="35">
-        <v>605</v>
+        <v>11164</v>
       </c>
       <c r="R27" s="37">
-        <v>117</v>
+        <v>2091</v>
       </c>
       <c r="S27" s="39">
-        <v>488</v>
+        <v>9072</v>
       </c>
       <c r="T27" s="41">
-        <v>22</v>
+        <v>403</v>
       </c>
       <c r="U27" s="43">
-        <v>44</v>
+        <v>812</v>
       </c>
       <c r="V27" s="45">
-        <v>-22</v>
+        <v>-409</v>
       </c>
       <c r="W27" s="47">
-        <v>21</v>
+        <v>373</v>
       </c>
       <c r="X27" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y27" s="51">
-        <v>21</v>
+        <v>369</v>
       </c>
       <c r="Z27" s="53">
-        <v>908</v>
+        <v>16727</v>
       </c>
       <c r="AA27" s="55">
-        <v>1295</v>
+        <v>23386</v>
       </c>
       <c r="AB27" s="57">
-        <v>-387</v>
+        <v>-6658</v>
       </c>
       <c r="AC27" s="59">
-        <v>379</v>
+        <v>7095</v>
       </c>
       <c r="AD27" s="61">
-        <v>151</v>
+        <v>2786</v>
       </c>
       <c r="AE27" s="63">
-        <v>228</v>
+        <v>4308</v>
       </c>
       <c r="AF27" s="65">
         <v>0</v>
@@ -4464,16 +4464,16 @@
         <v>0</v>
       </c>
       <c r="AI27" s="71">
-        <v>326</v>
+        <v>5995</v>
       </c>
       <c r="AJ27" s="73">
-        <v>251</v>
+        <v>4690</v>
       </c>
       <c r="AK27" s="75">
-        <v>74</v>
+        <v>1305</v>
       </c>
       <c r="AL27" s="77">
-        <v>53582</v>
+        <v>994343</v>
       </c>
     </row>
     <row r="28">
@@ -4481,94 +4481,94 @@
         <v>40</v>
       </c>
       <c r="B28" s="5">
-        <v>2602</v>
+        <v>46123</v>
       </c>
       <c r="C28" s="7">
-        <v>2783</v>
+        <v>48262</v>
       </c>
       <c r="D28" s="9">
-        <v>-181</v>
+        <v>-2139</v>
       </c>
       <c r="E28" s="11">
-        <v>15325</v>
+        <v>266084</v>
       </c>
       <c r="F28" s="13">
-        <v>14872</v>
+        <v>259432</v>
       </c>
       <c r="G28" s="15">
-        <v>452</v>
+        <v>6652</v>
       </c>
       <c r="H28" s="17">
-        <v>1213</v>
+        <v>21064</v>
       </c>
       <c r="I28" s="19">
-        <v>1564</v>
+        <v>26900</v>
       </c>
       <c r="J28" s="21">
-        <v>-351</v>
+        <v>-5837</v>
       </c>
       <c r="K28" s="23">
-        <v>528</v>
+        <v>9068</v>
       </c>
       <c r="L28" s="25">
-        <v>625</v>
+        <v>10681</v>
       </c>
       <c r="M28" s="27">
-        <v>-97</v>
+        <v>-1613</v>
       </c>
       <c r="N28" s="29">
-        <v>55</v>
+        <v>973</v>
       </c>
       <c r="O28" s="31">
-        <v>58</v>
+        <v>989</v>
       </c>
       <c r="P28" s="33">
-        <v>-4</v>
+        <v>-16</v>
       </c>
       <c r="Q28" s="35">
-        <v>56</v>
+        <v>983</v>
       </c>
       <c r="R28" s="37">
-        <v>198</v>
+        <v>3468</v>
       </c>
       <c r="S28" s="39">
-        <v>-143</v>
+        <v>-2485</v>
       </c>
       <c r="T28" s="41">
-        <v>30</v>
+        <v>527</v>
       </c>
       <c r="U28" s="43">
         <v>0</v>
       </c>
       <c r="V28" s="45">
-        <v>30</v>
+        <v>527</v>
       </c>
       <c r="W28" s="47">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="X28" s="49">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="Y28" s="51">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="Z28" s="53">
-        <v>489</v>
+        <v>8538</v>
       </c>
       <c r="AA28" s="55">
-        <v>555</v>
+        <v>9560</v>
       </c>
       <c r="AB28" s="57">
-        <v>-66</v>
+        <v>-1021</v>
       </c>
       <c r="AC28" s="59">
-        <v>47</v>
+        <v>821</v>
       </c>
       <c r="AD28" s="61">
-        <v>123</v>
+        <v>2124</v>
       </c>
       <c r="AE28" s="63">
-        <v>-76</v>
+        <v>-1303</v>
       </c>
       <c r="AF28" s="65">
         <v>0</v>
@@ -4580,16 +4580,16 @@
         <v>0</v>
       </c>
       <c r="AI28" s="71">
-        <v>235</v>
+        <v>4081</v>
       </c>
       <c r="AJ28" s="73">
-        <v>155</v>
+        <v>2758</v>
       </c>
       <c r="AK28" s="75">
-        <v>80</v>
+        <v>1323</v>
       </c>
       <c r="AL28" s="77">
-        <v>19375</v>
+        <v>337353</v>
       </c>
     </row>
     <row r="29">
@@ -4597,94 +4597,94 @@
         <v>41</v>
       </c>
       <c r="B29" s="5">
-        <v>1895</v>
+        <v>33215</v>
       </c>
       <c r="C29" s="7">
-        <v>2070</v>
+        <v>36054</v>
       </c>
       <c r="D29" s="9">
-        <v>-175</v>
+        <v>-2839</v>
       </c>
       <c r="E29" s="11">
-        <v>13083</v>
+        <v>227273</v>
       </c>
       <c r="F29" s="13">
-        <v>12463</v>
+        <v>216990</v>
       </c>
       <c r="G29" s="15">
-        <v>620</v>
+        <v>10283</v>
       </c>
       <c r="H29" s="17">
-        <v>1776</v>
+        <v>31084</v>
       </c>
       <c r="I29" s="19">
-        <v>2244</v>
+        <v>38943</v>
       </c>
       <c r="J29" s="21">
-        <v>-469</v>
+        <v>-7859</v>
       </c>
       <c r="K29" s="23">
-        <v>561</v>
+        <v>9803</v>
       </c>
       <c r="L29" s="25">
-        <v>805</v>
+        <v>14018</v>
       </c>
       <c r="M29" s="27">
-        <v>-244</v>
+        <v>-4215</v>
       </c>
       <c r="N29" s="29">
-        <v>46</v>
+        <v>804</v>
       </c>
       <c r="O29" s="31">
-        <v>112</v>
+        <v>1949</v>
       </c>
       <c r="P29" s="33">
-        <v>-66</v>
+        <v>-1145</v>
       </c>
       <c r="Q29" s="35">
-        <v>94</v>
+        <v>1644</v>
       </c>
       <c r="R29" s="37">
-        <v>192</v>
+        <v>3316</v>
       </c>
       <c r="S29" s="39">
-        <v>-98</v>
+        <v>-1671</v>
       </c>
       <c r="T29" s="41">
         <v>0</v>
       </c>
       <c r="U29" s="43">
-        <v>29</v>
+        <v>493</v>
       </c>
       <c r="V29" s="45">
-        <v>-29</v>
+        <v>-493</v>
       </c>
       <c r="W29" s="47">
         <v>0</v>
       </c>
       <c r="X29" s="49">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="Y29" s="51">
-        <v>-1</v>
+        <v>-17</v>
       </c>
       <c r="Z29" s="53">
-        <v>1012</v>
+        <v>17727</v>
       </c>
       <c r="AA29" s="55">
-        <v>603</v>
+        <v>10501</v>
       </c>
       <c r="AB29" s="57">
-        <v>409</v>
+        <v>7226</v>
       </c>
       <c r="AC29" s="59">
-        <v>63</v>
+        <v>1105</v>
       </c>
       <c r="AD29" s="61">
-        <v>503</v>
+        <v>8649</v>
       </c>
       <c r="AE29" s="63">
-        <v>-440</v>
+        <v>-7544</v>
       </c>
       <c r="AF29" s="65">
         <v>0</v>
@@ -4696,16 +4696,16 @@
         <v>0</v>
       </c>
       <c r="AI29" s="71">
-        <v>65</v>
+        <v>1129</v>
       </c>
       <c r="AJ29" s="73">
-        <v>41</v>
+        <v>714</v>
       </c>
       <c r="AK29" s="75">
-        <v>24</v>
+        <v>415</v>
       </c>
       <c r="AL29" s="77">
-        <v>16819</v>
+        <v>292702</v>
       </c>
     </row>
     <row r="30">
@@ -4713,94 +4713,94 @@
         <v>42</v>
       </c>
       <c r="B30" s="5">
-        <v>1698</v>
+        <v>29704</v>
       </c>
       <c r="C30" s="7">
-        <v>2843</v>
+        <v>49862</v>
       </c>
       <c r="D30" s="9">
-        <v>-1145</v>
+        <v>-20158</v>
       </c>
       <c r="E30" s="11">
-        <v>12790</v>
+        <v>225437</v>
       </c>
       <c r="F30" s="13">
-        <v>11033</v>
+        <v>195079</v>
       </c>
       <c r="G30" s="15">
-        <v>1758</v>
+        <v>30359</v>
       </c>
       <c r="H30" s="17">
-        <v>1708</v>
+        <v>30181</v>
       </c>
       <c r="I30" s="19">
-        <v>2330</v>
+        <v>40559</v>
       </c>
       <c r="J30" s="21">
-        <v>-622</v>
+        <v>-10378</v>
       </c>
       <c r="K30" s="23">
-        <v>487</v>
+        <v>8567</v>
       </c>
       <c r="L30" s="25">
-        <v>1032</v>
+        <v>18104</v>
       </c>
       <c r="M30" s="27">
-        <v>-545</v>
+        <v>-9538</v>
       </c>
       <c r="N30" s="29">
-        <v>80</v>
+        <v>1402</v>
       </c>
       <c r="O30" s="31">
-        <v>56</v>
+        <v>962</v>
       </c>
       <c r="P30" s="33">
-        <v>23</v>
+        <v>440</v>
       </c>
       <c r="Q30" s="35">
-        <v>149</v>
+        <v>2617</v>
       </c>
       <c r="R30" s="37">
-        <v>324</v>
+        <v>5619</v>
       </c>
       <c r="S30" s="39">
-        <v>-175</v>
+        <v>-3002</v>
       </c>
       <c r="T30" s="41">
-        <v>29</v>
+        <v>480</v>
       </c>
       <c r="U30" s="43">
         <v>0</v>
       </c>
       <c r="V30" s="45">
-        <v>29</v>
+        <v>480</v>
       </c>
       <c r="W30" s="47">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="X30" s="49">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="Y30" s="51">
-        <v>-1</v>
+        <v>-24</v>
       </c>
       <c r="Z30" s="53">
-        <v>681</v>
+        <v>12026</v>
       </c>
       <c r="AA30" s="55">
-        <v>658</v>
+        <v>11309</v>
       </c>
       <c r="AB30" s="57">
-        <v>23</v>
+        <v>717</v>
       </c>
       <c r="AC30" s="59">
-        <v>281</v>
+        <v>5071</v>
       </c>
       <c r="AD30" s="61">
-        <v>256</v>
+        <v>4522</v>
       </c>
       <c r="AE30" s="63">
-        <v>25</v>
+        <v>549</v>
       </c>
       <c r="AF30" s="65">
         <v>0</v>
@@ -4812,16 +4812,16 @@
         <v>0</v>
       </c>
       <c r="AI30" s="71">
-        <v>108</v>
+        <v>1895</v>
       </c>
       <c r="AJ30" s="73">
-        <v>98</v>
+        <v>1718</v>
       </c>
       <c r="AK30" s="75">
-        <v>9</v>
+        <v>177</v>
       </c>
       <c r="AL30" s="77">
-        <v>16304</v>
+        <v>287216</v>
       </c>
     </row>
     <row r="31">
@@ -4829,94 +4829,94 @@
         <v>43</v>
       </c>
       <c r="B31" s="5">
-        <v>2089</v>
+        <v>42381</v>
       </c>
       <c r="C31" s="7">
-        <v>3164</v>
+        <v>64522</v>
       </c>
       <c r="D31" s="9">
-        <v>-1075</v>
+        <v>-22141</v>
       </c>
       <c r="E31" s="11">
-        <v>23908</v>
+        <v>486834</v>
       </c>
       <c r="F31" s="13">
-        <v>21706</v>
+        <v>443552</v>
       </c>
       <c r="G31" s="15">
-        <v>2202</v>
+        <v>43282</v>
       </c>
       <c r="H31" s="17">
-        <v>1618</v>
+        <v>32827</v>
       </c>
       <c r="I31" s="19">
-        <v>2781</v>
+        <v>54879</v>
       </c>
       <c r="J31" s="21">
-        <v>-1163</v>
+        <v>-22052</v>
       </c>
       <c r="K31" s="23">
-        <v>354</v>
+        <v>7132</v>
       </c>
       <c r="L31" s="25">
-        <v>606</v>
+        <v>11898</v>
       </c>
       <c r="M31" s="27">
-        <v>-252</v>
+        <v>-4766</v>
       </c>
       <c r="N31" s="29">
-        <v>45</v>
+        <v>934</v>
       </c>
       <c r="O31" s="31">
-        <v>153</v>
+        <v>2921</v>
       </c>
       <c r="P31" s="33">
-        <v>-108</v>
+        <v>-1987</v>
       </c>
       <c r="Q31" s="35">
-        <v>137</v>
+        <v>2845</v>
       </c>
       <c r="R31" s="37">
-        <v>687</v>
+        <v>13524</v>
       </c>
       <c r="S31" s="39">
-        <v>-550</v>
+        <v>-10678</v>
       </c>
       <c r="T31" s="41">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="U31" s="43">
-        <v>19</v>
+        <v>390</v>
       </c>
       <c r="V31" s="45">
-        <v>-15</v>
+        <v>-321</v>
       </c>
       <c r="W31" s="47">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="X31" s="49">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="Y31" s="51">
-        <v>-8</v>
+        <v>-161</v>
       </c>
       <c r="Z31" s="53">
-        <v>963</v>
+        <v>19436</v>
       </c>
       <c r="AA31" s="55">
-        <v>596</v>
+        <v>11594</v>
       </c>
       <c r="AB31" s="57">
-        <v>367</v>
+        <v>7842</v>
       </c>
       <c r="AC31" s="59">
-        <v>112</v>
+        <v>2337</v>
       </c>
       <c r="AD31" s="61">
-        <v>710</v>
+        <v>14318</v>
       </c>
       <c r="AE31" s="63">
-        <v>-597</v>
+        <v>-11981</v>
       </c>
       <c r="AF31" s="65">
         <v>0</v>
@@ -4928,16 +4928,16 @@
         <v>0</v>
       </c>
       <c r="AI31" s="71">
-        <v>534</v>
+        <v>10944</v>
       </c>
       <c r="AJ31" s="73">
-        <v>498</v>
+        <v>10033</v>
       </c>
       <c r="AK31" s="75">
-        <v>36</v>
+        <v>911</v>
       </c>
       <c r="AL31" s="77">
-        <v>28149</v>
+        <v>572986</v>
       </c>
     </row>
     <row r="32">
@@ -4945,94 +4945,94 @@
         <v>44</v>
       </c>
       <c r="B32" s="5">
-        <v>6097</v>
+        <v>122835</v>
       </c>
       <c r="C32" s="7">
-        <v>5529</v>
+        <v>111747</v>
       </c>
       <c r="D32" s="9">
-        <v>567</v>
+        <v>11088</v>
       </c>
       <c r="E32" s="11">
-        <v>39166</v>
+        <v>790778</v>
       </c>
       <c r="F32" s="13">
-        <v>40452</v>
+        <v>817163</v>
       </c>
       <c r="G32" s="15">
-        <v>-1286</v>
+        <v>-26385</v>
       </c>
       <c r="H32" s="17">
-        <v>3255</v>
+        <v>65076</v>
       </c>
       <c r="I32" s="19">
-        <v>2422</v>
+        <v>47601</v>
       </c>
       <c r="J32" s="21">
-        <v>833</v>
+        <v>17475</v>
       </c>
       <c r="K32" s="23">
-        <v>438</v>
+        <v>8612</v>
       </c>
       <c r="L32" s="25">
-        <v>443</v>
+        <v>8593</v>
       </c>
       <c r="M32" s="27">
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="N32" s="29">
-        <v>96</v>
+        <v>1931</v>
       </c>
       <c r="O32" s="31">
-        <v>129</v>
+        <v>2505</v>
       </c>
       <c r="P32" s="33">
-        <v>-32</v>
+        <v>-574</v>
       </c>
       <c r="Q32" s="35">
-        <v>652</v>
+        <v>13040</v>
       </c>
       <c r="R32" s="37">
-        <v>497</v>
+        <v>9926</v>
       </c>
       <c r="S32" s="39">
-        <v>154</v>
+        <v>3113</v>
       </c>
       <c r="T32" s="41">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="U32" s="43">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="V32" s="45">
-        <v>-5</v>
+        <v>-85</v>
       </c>
       <c r="W32" s="47">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="X32" s="49">
-        <v>11</v>
+        <v>223</v>
       </c>
       <c r="Y32" s="51">
-        <v>-7</v>
+        <v>-136</v>
       </c>
       <c r="Z32" s="53">
-        <v>1212</v>
+        <v>24255</v>
       </c>
       <c r="AA32" s="55">
-        <v>848</v>
+        <v>16579</v>
       </c>
       <c r="AB32" s="57">
-        <v>364</v>
+        <v>7677</v>
       </c>
       <c r="AC32" s="59">
-        <v>851</v>
+        <v>17092</v>
       </c>
       <c r="AD32" s="61">
-        <v>487</v>
+        <v>9632</v>
       </c>
       <c r="AE32" s="63">
-        <v>363</v>
+        <v>7460</v>
       </c>
       <c r="AF32" s="65">
         <v>0</v>
@@ -5044,16 +5044,16 @@
         <v>0</v>
       </c>
       <c r="AI32" s="71">
-        <v>409</v>
+        <v>8173</v>
       </c>
       <c r="AJ32" s="73">
-        <v>524</v>
+        <v>10350</v>
       </c>
       <c r="AK32" s="75">
-        <v>-114</v>
+        <v>-2178</v>
       </c>
       <c r="AL32" s="77">
-        <v>48927</v>
+        <v>986861</v>
       </c>
     </row>
     <row r="33">
@@ -5061,94 +5061,94 @@
         <v>45</v>
       </c>
       <c r="B33" s="5">
-        <v>6536</v>
+        <v>130034</v>
       </c>
       <c r="C33" s="7">
-        <v>10140</v>
+        <v>199468</v>
       </c>
       <c r="D33" s="9">
-        <v>-3604</v>
+        <v>-69434</v>
       </c>
       <c r="E33" s="11">
-        <v>45704</v>
+        <v>918335</v>
       </c>
       <c r="F33" s="13">
-        <v>43871</v>
+        <v>882266</v>
       </c>
       <c r="G33" s="15">
-        <v>1833</v>
+        <v>36069</v>
       </c>
       <c r="H33" s="17">
-        <v>4236</v>
+        <v>83561</v>
       </c>
       <c r="I33" s="19">
-        <v>2755</v>
+        <v>55772</v>
       </c>
       <c r="J33" s="21">
-        <v>1481</v>
+        <v>27789</v>
       </c>
       <c r="K33" s="23">
-        <v>585</v>
+        <v>11429</v>
       </c>
       <c r="L33" s="25">
-        <v>491</v>
+        <v>9662</v>
       </c>
       <c r="M33" s="27">
-        <v>94</v>
+        <v>1767</v>
       </c>
       <c r="N33" s="29">
-        <v>198</v>
+        <v>3865</v>
       </c>
       <c r="O33" s="31">
-        <v>100</v>
+        <v>1981</v>
       </c>
       <c r="P33" s="33">
-        <v>99</v>
+        <v>1885</v>
       </c>
       <c r="Q33" s="35">
-        <v>1533</v>
+        <v>29959</v>
       </c>
       <c r="R33" s="37">
-        <v>907</v>
+        <v>18789</v>
       </c>
       <c r="S33" s="39">
-        <v>626</v>
+        <v>11170</v>
       </c>
       <c r="T33" s="41">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="U33" s="43">
         <v>0</v>
       </c>
       <c r="V33" s="45">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="W33" s="47">
-        <v>17</v>
+        <v>327</v>
       </c>
       <c r="X33" s="49">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="Y33" s="51">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="Z33" s="53">
-        <v>961</v>
+        <v>18967</v>
       </c>
       <c r="AA33" s="55">
-        <v>414</v>
+        <v>8326</v>
       </c>
       <c r="AB33" s="57">
-        <v>547</v>
+        <v>10641</v>
       </c>
       <c r="AC33" s="59">
-        <v>931</v>
+        <v>18778</v>
       </c>
       <c r="AD33" s="61">
-        <v>839</v>
+        <v>16919</v>
       </c>
       <c r="AE33" s="63">
-        <v>92</v>
+        <v>1860</v>
       </c>
       <c r="AF33" s="65">
         <v>0</v>
@@ -5160,16 +5160,16 @@
         <v>0</v>
       </c>
       <c r="AI33" s="71">
-        <v>879</v>
+        <v>17497</v>
       </c>
       <c r="AJ33" s="73">
-        <v>590</v>
+        <v>11921</v>
       </c>
       <c r="AK33" s="75">
-        <v>290</v>
+        <v>5576</v>
       </c>
       <c r="AL33" s="77">
-        <v>57356</v>
+        <v>1149428</v>
       </c>
     </row>
     <row r="34">
@@ -5177,94 +5177,94 @@
         <v>46</v>
       </c>
       <c r="B34" s="5">
-        <v>13569</v>
+        <v>246870</v>
       </c>
       <c r="C34" s="7">
-        <v>8968</v>
+        <v>165800</v>
       </c>
       <c r="D34" s="9">
-        <v>4602</v>
+        <v>81070</v>
       </c>
       <c r="E34" s="11">
-        <v>29791</v>
+        <v>545861</v>
       </c>
       <c r="F34" s="13">
-        <v>27716</v>
+        <v>505684</v>
       </c>
       <c r="G34" s="15">
-        <v>2075</v>
+        <v>40177</v>
       </c>
       <c r="H34" s="17">
-        <v>2429</v>
+        <v>44275</v>
       </c>
       <c r="I34" s="19">
-        <v>10891</v>
+        <v>198399</v>
       </c>
       <c r="J34" s="21">
-        <v>-8462</v>
+        <v>-154123</v>
       </c>
       <c r="K34" s="23">
-        <v>495</v>
+        <v>8923</v>
       </c>
       <c r="L34" s="25">
-        <v>611</v>
+        <v>11026</v>
       </c>
       <c r="M34" s="27">
-        <v>-117</v>
+        <v>-2103</v>
       </c>
       <c r="N34" s="29">
-        <v>84</v>
+        <v>1537</v>
       </c>
       <c r="O34" s="31">
-        <v>83</v>
+        <v>1468</v>
       </c>
       <c r="P34" s="33">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="Q34" s="35">
-        <v>340</v>
+        <v>6270</v>
       </c>
       <c r="R34" s="37">
-        <v>413</v>
+        <v>7455</v>
       </c>
       <c r="S34" s="39">
-        <v>-72</v>
+        <v>-1184</v>
       </c>
       <c r="T34" s="41">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="U34" s="43">
         <v>0</v>
       </c>
       <c r="V34" s="45">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="W34" s="47">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="X34" s="49">
-        <v>8589</v>
+        <v>156955</v>
       </c>
       <c r="Y34" s="51">
-        <v>-8580</v>
+        <v>-156801</v>
       </c>
       <c r="Z34" s="53">
-        <v>1203</v>
+        <v>21831</v>
       </c>
       <c r="AA34" s="55">
-        <v>1001</v>
+        <v>17986</v>
       </c>
       <c r="AB34" s="57">
-        <v>202</v>
+        <v>3845</v>
       </c>
       <c r="AC34" s="59">
-        <v>286</v>
+        <v>5339</v>
       </c>
       <c r="AD34" s="61">
-        <v>194</v>
+        <v>3509</v>
       </c>
       <c r="AE34" s="63">
-        <v>92</v>
+        <v>1830</v>
       </c>
       <c r="AF34" s="65">
         <v>0</v>
@@ -5276,16 +5276,16 @@
         <v>0</v>
       </c>
       <c r="AI34" s="71">
-        <v>2175</v>
+        <v>39907</v>
       </c>
       <c r="AJ34" s="73">
-        <v>389</v>
+        <v>7031</v>
       </c>
       <c r="AK34" s="75">
-        <v>1786</v>
+        <v>32876</v>
       </c>
       <c r="AL34" s="77">
-        <v>47964</v>
+        <v>876913</v>
       </c>
     </row>
     <row r="35">
@@ -5293,94 +5293,94 @@
         <v>47</v>
       </c>
       <c r="B35" s="5">
-        <v>4441</v>
+        <v>65583</v>
       </c>
       <c r="C35" s="7">
-        <v>4345</v>
+        <v>64682</v>
       </c>
       <c r="D35" s="9">
-        <v>96</v>
+        <v>901</v>
       </c>
       <c r="E35" s="11">
-        <v>32587</v>
+        <v>491875</v>
       </c>
       <c r="F35" s="13">
-        <v>35969</v>
+        <v>540215</v>
       </c>
       <c r="G35" s="15">
-        <v>-3382</v>
+        <v>-48339</v>
       </c>
       <c r="H35" s="17">
-        <v>4847</v>
+        <v>70520</v>
       </c>
       <c r="I35" s="19">
-        <v>1567</v>
+        <v>23258</v>
       </c>
       <c r="J35" s="21">
-        <v>3279</v>
+        <v>47262</v>
       </c>
       <c r="K35" s="23">
-        <v>322</v>
+        <v>4977</v>
       </c>
       <c r="L35" s="25">
-        <v>439</v>
+        <v>6422</v>
       </c>
       <c r="M35" s="27">
-        <v>-116</v>
+        <v>-1444</v>
       </c>
       <c r="N35" s="29">
-        <v>223</v>
+        <v>3092</v>
       </c>
       <c r="O35" s="31">
-        <v>81</v>
+        <v>1207</v>
       </c>
       <c r="P35" s="33">
-        <v>142</v>
+        <v>1885</v>
       </c>
       <c r="Q35" s="35">
-        <v>860</v>
+        <v>12288</v>
       </c>
       <c r="R35" s="37">
-        <v>381</v>
+        <v>5776</v>
       </c>
       <c r="S35" s="39">
-        <v>479</v>
+        <v>6512</v>
       </c>
       <c r="T35" s="41">
-        <v>21</v>
+        <v>289</v>
       </c>
       <c r="U35" s="43">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="V35" s="45">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="W35" s="47">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="X35" s="49">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="Y35" s="51">
-        <v>-13</v>
+        <v>-200</v>
       </c>
       <c r="Z35" s="53">
-        <v>3303</v>
+        <v>48169</v>
       </c>
       <c r="AA35" s="55">
-        <v>569</v>
+        <v>8442</v>
       </c>
       <c r="AB35" s="57">
-        <v>2735</v>
+        <v>39727</v>
       </c>
       <c r="AC35" s="59">
-        <v>114</v>
+        <v>1668</v>
       </c>
       <c r="AD35" s="61">
-        <v>66</v>
+        <v>937</v>
       </c>
       <c r="AE35" s="63">
-        <v>48</v>
+        <v>730</v>
       </c>
       <c r="AF35" s="65">
         <v>0</v>
@@ -5392,16 +5392,16 @@
         <v>0</v>
       </c>
       <c r="AI35" s="71">
-        <v>381</v>
+        <v>5830</v>
       </c>
       <c r="AJ35" s="73">
-        <v>375</v>
+        <v>5654</v>
       </c>
       <c r="AK35" s="75">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="AL35" s="77">
-        <v>42256</v>
+        <v>633808</v>
       </c>
     </row>
     <row r="36">
@@ -5409,115 +5409,115 @@
         <v>48</v>
       </c>
       <c r="B36" s="5">
-        <v>1473</v>
+        <v>17215</v>
       </c>
       <c r="C36" s="7">
-        <v>691</v>
+        <v>8037</v>
       </c>
       <c r="D36" s="9">
-        <v>781</v>
+        <v>9178</v>
       </c>
       <c r="E36" s="11">
-        <v>12104</v>
+        <v>140302</v>
       </c>
       <c r="F36" s="13">
-        <v>12397</v>
+        <v>144034</v>
       </c>
       <c r="G36" s="15">
-        <v>-294</v>
+        <v>-3732</v>
       </c>
       <c r="H36" s="17">
-        <v>630</v>
+        <v>7238</v>
       </c>
       <c r="I36" s="19">
-        <v>1128</v>
+        <v>12816</v>
       </c>
       <c r="J36" s="21">
-        <v>-498</v>
+        <v>-5578</v>
       </c>
       <c r="K36" s="23">
-        <v>254</v>
+        <v>2916</v>
       </c>
       <c r="L36" s="25">
-        <v>122</v>
+        <v>1475</v>
       </c>
       <c r="M36" s="27">
+        <v>1442</v>
+      </c>
+      <c r="N36" s="29">
+        <v>785</v>
+      </c>
+      <c r="O36" s="31">
+        <v>166</v>
+      </c>
+      <c r="P36" s="33">
+        <v>619</v>
+      </c>
+      <c r="Q36" s="35">
+        <v>1573</v>
+      </c>
+      <c r="R36" s="37">
+        <v>1231</v>
+      </c>
+      <c r="S36" s="39">
+        <v>342</v>
+      </c>
+      <c r="T36" s="41">
+        <v>0</v>
+      </c>
+      <c r="U36" s="43">
+        <v>25</v>
+      </c>
+      <c r="V36" s="45">
+        <v>-25</v>
+      </c>
+      <c r="W36" s="47">
+        <v>0</v>
+      </c>
+      <c r="X36" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="51">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="53">
+        <v>1253</v>
+      </c>
+      <c r="AA36" s="55">
+        <v>8374</v>
+      </c>
+      <c r="AB36" s="57">
+        <v>-7122</v>
+      </c>
+      <c r="AC36" s="59">
+        <v>711</v>
+      </c>
+      <c r="AD36" s="61">
+        <v>1545</v>
+      </c>
+      <c r="AE36" s="63">
+        <v>-834</v>
+      </c>
+      <c r="AF36" s="65">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="67">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="69">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="71">
+        <v>1297</v>
+      </c>
+      <c r="AJ36" s="73">
+        <v>1165</v>
+      </c>
+      <c r="AK36" s="75">
         <v>132</v>
       </c>
-      <c r="N36" s="29">
-        <v>66</v>
-      </c>
-      <c r="O36" s="31">
-        <v>14</v>
-      </c>
-      <c r="P36" s="33">
-        <v>52</v>
-      </c>
-      <c r="Q36" s="35">
-        <v>138</v>
-      </c>
-      <c r="R36" s="37">
-        <v>106</v>
-      </c>
-      <c r="S36" s="39">
-        <v>32</v>
-      </c>
-      <c r="T36" s="41">
-        <v>0</v>
-      </c>
-      <c r="U36" s="43">
-        <v>2</v>
-      </c>
-      <c r="V36" s="45">
-        <v>-2</v>
-      </c>
-      <c r="W36" s="47">
-        <v>0</v>
-      </c>
-      <c r="X36" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="51">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="53">
-        <v>111</v>
-      </c>
-      <c r="AA36" s="55">
-        <v>753</v>
-      </c>
-      <c r="AB36" s="57">
-        <v>-642</v>
-      </c>
-      <c r="AC36" s="59">
-        <v>61</v>
-      </c>
-      <c r="AD36" s="61">
-        <v>131</v>
-      </c>
-      <c r="AE36" s="63">
-        <v>-70</v>
-      </c>
-      <c r="AF36" s="65">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="67">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="69">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="71">
-        <v>112</v>
-      </c>
-      <c r="AJ36" s="73">
-        <v>102</v>
-      </c>
-      <c r="AK36" s="75">
-        <v>11</v>
-      </c>
       <c r="AL36" s="77">
-        <v>14318</v>
+        <v>166051</v>
       </c>
     </row>
     <row r="37">
@@ -5525,94 +5525,94 @@
         <v>49</v>
       </c>
       <c r="B37" s="5">
+        <v>7819</v>
+      </c>
+      <c r="C37" s="7">
+        <v>5948</v>
+      </c>
+      <c r="D37" s="9">
+        <v>1871</v>
+      </c>
+      <c r="E37" s="11">
+        <v>63687</v>
+      </c>
+      <c r="F37" s="13">
+        <v>61786</v>
+      </c>
+      <c r="G37" s="15">
+        <v>1901</v>
+      </c>
+      <c r="H37" s="17">
+        <v>3262</v>
+      </c>
+      <c r="I37" s="19">
+        <v>6881</v>
+      </c>
+      <c r="J37" s="21">
+        <v>-3619</v>
+      </c>
+      <c r="K37" s="23">
+        <v>797</v>
+      </c>
+      <c r="L37" s="25">
+        <v>787</v>
+      </c>
+      <c r="M37" s="27">
+        <v>9</v>
+      </c>
+      <c r="N37" s="29">
+        <v>75</v>
+      </c>
+      <c r="O37" s="31">
+        <v>522</v>
+      </c>
+      <c r="P37" s="33">
+        <v>-447</v>
+      </c>
+      <c r="Q37" s="35">
+        <v>580</v>
+      </c>
+      <c r="R37" s="37">
+        <v>2536</v>
+      </c>
+      <c r="S37" s="39">
+        <v>-1956</v>
+      </c>
+      <c r="T37" s="41">
+        <v>0</v>
+      </c>
+      <c r="U37" s="43">
+        <v>0</v>
+      </c>
+      <c r="V37" s="45">
+        <v>0</v>
+      </c>
+      <c r="W37" s="47">
+        <v>39</v>
+      </c>
+      <c r="X37" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="51">
+        <v>39</v>
+      </c>
+      <c r="Z37" s="53">
+        <v>1644</v>
+      </c>
+      <c r="AA37" s="55">
+        <v>2337</v>
+      </c>
+      <c r="AB37" s="57">
+        <v>-693</v>
+      </c>
+      <c r="AC37" s="59">
+        <v>128</v>
+      </c>
+      <c r="AD37" s="61">
         <v>700</v>
       </c>
-      <c r="C37" s="7">
-        <v>533</v>
-      </c>
-      <c r="D37" s="9">
-        <v>167</v>
-      </c>
-      <c r="E37" s="11">
-        <v>5713</v>
-      </c>
-      <c r="F37" s="13">
-        <v>5541</v>
-      </c>
-      <c r="G37" s="15">
-        <v>172</v>
-      </c>
-      <c r="H37" s="17">
-        <v>292</v>
-      </c>
-      <c r="I37" s="19">
-        <v>616</v>
-      </c>
-      <c r="J37" s="21">
-        <v>-325</v>
-      </c>
-      <c r="K37" s="23">
-        <v>72</v>
-      </c>
-      <c r="L37" s="25">
-        <v>70</v>
-      </c>
-      <c r="M37" s="27">
-        <v>2</v>
-      </c>
-      <c r="N37" s="29">
-        <v>7</v>
-      </c>
-      <c r="O37" s="31">
-        <v>46</v>
-      </c>
-      <c r="P37" s="33">
-        <v>-40</v>
-      </c>
-      <c r="Q37" s="35">
-        <v>52</v>
-      </c>
-      <c r="R37" s="37">
-        <v>228</v>
-      </c>
-      <c r="S37" s="39">
-        <v>-176</v>
-      </c>
-      <c r="T37" s="41">
-        <v>0</v>
-      </c>
-      <c r="U37" s="43">
-        <v>0</v>
-      </c>
-      <c r="V37" s="45">
-        <v>0</v>
-      </c>
-      <c r="W37" s="47">
-        <v>3</v>
-      </c>
-      <c r="X37" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="51">
-        <v>3</v>
-      </c>
-      <c r="Z37" s="53">
-        <v>146</v>
-      </c>
-      <c r="AA37" s="55">
-        <v>212</v>
-      </c>
-      <c r="AB37" s="57">
-        <v>-65</v>
-      </c>
-      <c r="AC37" s="59">
-        <v>12</v>
-      </c>
-      <c r="AD37" s="61">
-        <v>61</v>
-      </c>
       <c r="AE37" s="63">
-        <v>-49</v>
+        <v>-571</v>
       </c>
       <c r="AF37" s="65">
         <v>0</v>
@@ -5624,16 +5624,16 @@
         <v>0</v>
       </c>
       <c r="AI37" s="71">
-        <v>23</v>
+        <v>255</v>
       </c>
       <c r="AJ37" s="73">
-        <v>38</v>
+        <v>408</v>
       </c>
       <c r="AK37" s="75">
-        <v>-15</v>
+        <v>-153</v>
       </c>
       <c r="AL37" s="77">
-        <v>6728</v>
+        <v>75023</v>
       </c>
     </row>
     <row r="38">
@@ -5641,94 +5641,94 @@
         <v>50</v>
       </c>
       <c r="B38" s="5">
-        <v>3301</v>
+        <v>40500</v>
       </c>
       <c r="C38" s="7">
-        <v>3793</v>
+        <v>48168</v>
       </c>
       <c r="D38" s="9">
-        <v>-493</v>
+        <v>-7667</v>
       </c>
       <c r="E38" s="11">
-        <v>53804</v>
+        <v>688791</v>
       </c>
       <c r="F38" s="13">
-        <v>52561</v>
+        <v>670887</v>
       </c>
       <c r="G38" s="15">
-        <v>1243</v>
+        <v>17904</v>
       </c>
       <c r="H38" s="17">
-        <v>946</v>
+        <v>11586</v>
       </c>
       <c r="I38" s="19">
-        <v>1515</v>
+        <v>19594</v>
       </c>
       <c r="J38" s="21">
-        <v>-570</v>
+        <v>-8008</v>
       </c>
       <c r="K38" s="23">
-        <v>49</v>
+        <v>609</v>
       </c>
       <c r="L38" s="25">
-        <v>69</v>
+        <v>881</v>
       </c>
       <c r="M38" s="27">
-        <v>-20</v>
+        <v>-273</v>
       </c>
       <c r="N38" s="29">
-        <v>35</v>
+        <v>423</v>
       </c>
       <c r="O38" s="31">
-        <v>134</v>
+        <v>1688</v>
       </c>
       <c r="P38" s="33">
-        <v>-99</v>
+        <v>-1265</v>
       </c>
       <c r="Q38" s="35">
-        <v>431</v>
+        <v>5320</v>
       </c>
       <c r="R38" s="37">
-        <v>363</v>
+        <v>4800</v>
       </c>
       <c r="S38" s="39">
-        <v>68</v>
+        <v>520</v>
       </c>
       <c r="T38" s="41">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="U38" s="43">
-        <v>98</v>
+        <v>1215</v>
       </c>
       <c r="V38" s="45">
-        <v>-96</v>
+        <v>-1188</v>
       </c>
       <c r="W38" s="47">
-        <v>30</v>
+        <v>383</v>
       </c>
       <c r="X38" s="49">
-        <v>65</v>
+        <v>803</v>
       </c>
       <c r="Y38" s="51">
-        <v>-35</v>
+        <v>-421</v>
       </c>
       <c r="Z38" s="53">
-        <v>347</v>
+        <v>4208</v>
       </c>
       <c r="AA38" s="55">
-        <v>465</v>
+        <v>5947</v>
       </c>
       <c r="AB38" s="57">
-        <v>-118</v>
+        <v>-1739</v>
       </c>
       <c r="AC38" s="59">
-        <v>51</v>
+        <v>616</v>
       </c>
       <c r="AD38" s="61">
-        <v>321</v>
+        <v>4259</v>
       </c>
       <c r="AE38" s="63">
-        <v>-269</v>
+        <v>-3643</v>
       </c>
       <c r="AF38" s="65">
         <v>0</v>
@@ -5740,16 +5740,16 @@
         <v>0</v>
       </c>
       <c r="AI38" s="71">
-        <v>459</v>
+        <v>5753</v>
       </c>
       <c r="AJ38" s="73">
-        <v>640</v>
+        <v>7982</v>
       </c>
       <c r="AK38" s="75">
-        <v>-181</v>
+        <v>-2229</v>
       </c>
       <c r="AL38" s="77">
-        <v>58509</v>
+        <v>746631</v>
       </c>
     </row>
     <row r="39">
@@ -5757,94 +5757,94 @@
         <v>51</v>
       </c>
       <c r="B39" s="5">
-        <v>1395</v>
+        <v>14355</v>
       </c>
       <c r="C39" s="7">
-        <v>1330</v>
+        <v>13928</v>
       </c>
       <c r="D39" s="9">
+        <v>428</v>
+      </c>
+      <c r="E39" s="11">
+        <v>208075</v>
+      </c>
+      <c r="F39" s="13">
+        <v>210659</v>
+      </c>
+      <c r="G39" s="15">
+        <v>-2583</v>
+      </c>
+      <c r="H39" s="17">
+        <v>12556</v>
+      </c>
+      <c r="I39" s="19">
+        <v>10797</v>
+      </c>
+      <c r="J39" s="21">
+        <v>1759</v>
+      </c>
+      <c r="K39" s="23">
+        <v>828</v>
+      </c>
+      <c r="L39" s="25">
+        <v>1962</v>
+      </c>
+      <c r="M39" s="27">
+        <v>-1135</v>
+      </c>
+      <c r="N39" s="29">
+        <v>965</v>
+      </c>
+      <c r="O39" s="31">
+        <v>1719</v>
+      </c>
+      <c r="P39" s="33">
+        <v>-754</v>
+      </c>
+      <c r="Q39" s="35">
+        <v>2999</v>
+      </c>
+      <c r="R39" s="37">
+        <v>4076</v>
+      </c>
+      <c r="S39" s="39">
+        <v>-1076</v>
+      </c>
+      <c r="T39" s="41">
+        <v>54</v>
+      </c>
+      <c r="U39" s="43">
+        <v>0</v>
+      </c>
+      <c r="V39" s="45">
+        <v>54</v>
+      </c>
+      <c r="W39" s="47">
         <v>65</v>
       </c>
-      <c r="E39" s="11">
-        <v>19885</v>
-      </c>
-      <c r="F39" s="13">
-        <v>20128</v>
-      </c>
-      <c r="G39" s="15">
-        <v>-243</v>
-      </c>
-      <c r="H39" s="17">
-        <v>1170</v>
-      </c>
-      <c r="I39" s="19">
-        <v>1028</v>
-      </c>
-      <c r="J39" s="21">
-        <v>143</v>
-      </c>
-      <c r="K39" s="23">
-        <v>79</v>
-      </c>
-      <c r="L39" s="25">
-        <v>189</v>
-      </c>
-      <c r="M39" s="27">
-        <v>-110</v>
-      </c>
-      <c r="N39" s="29">
-        <v>90</v>
-      </c>
-      <c r="O39" s="31">
-        <v>160</v>
-      </c>
-      <c r="P39" s="33">
-        <v>-70</v>
-      </c>
-      <c r="Q39" s="35">
-        <v>279</v>
-      </c>
-      <c r="R39" s="37">
-        <v>394</v>
-      </c>
-      <c r="S39" s="39">
-        <v>-114</v>
-      </c>
-      <c r="T39" s="41">
-        <v>5</v>
-      </c>
-      <c r="U39" s="43">
-        <v>0</v>
-      </c>
-      <c r="V39" s="45">
-        <v>5</v>
-      </c>
-      <c r="W39" s="47">
-        <v>6</v>
-      </c>
       <c r="X39" s="49">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="Y39" s="51">
-        <v>-4</v>
+        <v>-42</v>
       </c>
       <c r="Z39" s="53">
-        <v>600</v>
+        <v>6406</v>
       </c>
       <c r="AA39" s="55">
-        <v>205</v>
+        <v>2208</v>
       </c>
       <c r="AB39" s="57">
-        <v>395</v>
+        <v>4198</v>
       </c>
       <c r="AC39" s="59">
-        <v>112</v>
+        <v>1240</v>
       </c>
       <c r="AD39" s="61">
-        <v>70</v>
+        <v>726</v>
       </c>
       <c r="AE39" s="63">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="AF39" s="65">
         <v>0</v>
@@ -5856,16 +5856,16 @@
         <v>0</v>
       </c>
       <c r="AI39" s="71">
-        <v>169</v>
+        <v>1788</v>
       </c>
       <c r="AJ39" s="73">
-        <v>132</v>
+        <v>1391</v>
       </c>
       <c r="AK39" s="75">
-        <v>36</v>
+        <v>397</v>
       </c>
       <c r="AL39" s="77">
-        <v>22619</v>
+        <v>236774</v>
       </c>
     </row>
     <row r="40">
@@ -5873,94 +5873,94 @@
         <v>52</v>
       </c>
       <c r="B40" s="5">
-        <v>880</v>
+        <v>8173</v>
       </c>
       <c r="C40" s="7">
-        <v>436</v>
+        <v>4143</v>
       </c>
       <c r="D40" s="9">
-        <v>444</v>
+        <v>4030</v>
       </c>
       <c r="E40" s="11">
-        <v>11014</v>
+        <v>104322</v>
       </c>
       <c r="F40" s="13">
-        <v>11598</v>
+        <v>110071</v>
       </c>
       <c r="G40" s="15">
-        <v>-584</v>
+        <v>-5749</v>
       </c>
       <c r="H40" s="17">
-        <v>859</v>
+        <v>8451</v>
       </c>
       <c r="I40" s="19">
-        <v>700</v>
+        <v>6542</v>
       </c>
       <c r="J40" s="21">
-        <v>158</v>
+        <v>1909</v>
       </c>
       <c r="K40" s="23">
-        <v>91</v>
+        <v>873</v>
       </c>
       <c r="L40" s="25">
-        <v>79</v>
+        <v>733</v>
       </c>
       <c r="M40" s="27">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="N40" s="29">
-        <v>106</v>
+        <v>1042</v>
       </c>
       <c r="O40" s="31">
-        <v>88</v>
+        <v>836</v>
       </c>
       <c r="P40" s="33">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="Q40" s="35">
-        <v>93</v>
+        <v>909</v>
       </c>
       <c r="R40" s="37">
-        <v>149</v>
+        <v>1432</v>
       </c>
       <c r="S40" s="39">
-        <v>-56</v>
+        <v>-523</v>
       </c>
       <c r="T40" s="41">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="U40" s="43">
         <v>0</v>
       </c>
       <c r="V40" s="45">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="W40" s="47">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="X40" s="49">
-        <v>26</v>
+        <v>239</v>
       </c>
       <c r="Y40" s="51">
-        <v>-25</v>
+        <v>-229</v>
       </c>
       <c r="Z40" s="53">
-        <v>561</v>
+        <v>5555</v>
       </c>
       <c r="AA40" s="55">
-        <v>293</v>
+        <v>2672</v>
       </c>
       <c r="AB40" s="57">
-        <v>269</v>
+        <v>2883</v>
       </c>
       <c r="AC40" s="59">
         <v>0</v>
       </c>
       <c r="AD40" s="61">
-        <v>65</v>
+        <v>630</v>
       </c>
       <c r="AE40" s="63">
-        <v>-65</v>
+        <v>-630</v>
       </c>
       <c r="AF40" s="65">
         <v>0</v>
@@ -5972,16 +5972,16 @@
         <v>0</v>
       </c>
       <c r="AI40" s="71">
-        <v>65</v>
+        <v>602</v>
       </c>
       <c r="AJ40" s="73">
-        <v>83</v>
+        <v>791</v>
       </c>
       <c r="AK40" s="75">
-        <v>-19</v>
+        <v>-189</v>
       </c>
       <c r="AL40" s="77">
-        <v>12817</v>
+        <v>121548</v>
       </c>
     </row>
     <row r="41">
@@ -5989,94 +5989,94 @@
         <v>53</v>
       </c>
       <c r="B41" s="5">
-        <v>1447</v>
+        <v>13866</v>
       </c>
       <c r="C41" s="7">
-        <v>1019</v>
+        <v>9918</v>
       </c>
       <c r="D41" s="9">
-        <v>428</v>
+        <v>3948</v>
       </c>
       <c r="E41" s="11">
-        <v>44979</v>
+        <v>440491</v>
       </c>
       <c r="F41" s="13">
-        <v>45046</v>
+        <v>440885</v>
       </c>
       <c r="G41" s="15">
-        <v>-67</v>
+        <v>-394</v>
       </c>
       <c r="H41" s="17">
-        <v>815</v>
+        <v>7787</v>
       </c>
       <c r="I41" s="19">
-        <v>1070</v>
+        <v>10206</v>
       </c>
       <c r="J41" s="21">
-        <v>-256</v>
+        <v>-2420</v>
       </c>
       <c r="K41" s="23">
-        <v>67</v>
+        <v>621</v>
       </c>
       <c r="L41" s="25">
-        <v>125</v>
+        <v>1177</v>
       </c>
       <c r="M41" s="27">
+        <v>-556</v>
+      </c>
+      <c r="N41" s="29">
+        <v>485</v>
+      </c>
+      <c r="O41" s="31">
+        <v>332</v>
+      </c>
+      <c r="P41" s="33">
+        <v>153</v>
+      </c>
+      <c r="Q41" s="35">
+        <v>1141</v>
+      </c>
+      <c r="R41" s="37">
+        <v>2471</v>
+      </c>
+      <c r="S41" s="39">
+        <v>-1331</v>
+      </c>
+      <c r="T41" s="41">
+        <v>0</v>
+      </c>
+      <c r="U41" s="43">
+        <v>58</v>
+      </c>
+      <c r="V41" s="45">
         <v>-58</v>
       </c>
-      <c r="N41" s="29">
-        <v>48</v>
-      </c>
-      <c r="O41" s="31">
-        <v>33</v>
-      </c>
-      <c r="P41" s="33">
-        <v>14</v>
-      </c>
-      <c r="Q41" s="35">
-        <v>120</v>
-      </c>
-      <c r="R41" s="37">
-        <v>265</v>
-      </c>
-      <c r="S41" s="39">
-        <v>-145</v>
-      </c>
-      <c r="T41" s="41">
-        <v>0</v>
-      </c>
-      <c r="U41" s="43">
-        <v>6</v>
-      </c>
-      <c r="V41" s="45">
-        <v>-6</v>
-      </c>
       <c r="W41" s="47">
         <v>0</v>
       </c>
       <c r="X41" s="49">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="Y41" s="51">
-        <v>-20</v>
+        <v>-186</v>
       </c>
       <c r="Z41" s="53">
-        <v>536</v>
+        <v>5103</v>
       </c>
       <c r="AA41" s="55">
-        <v>318</v>
+        <v>3017</v>
       </c>
       <c r="AB41" s="57">
-        <v>218</v>
+        <v>2086</v>
       </c>
       <c r="AC41" s="59">
-        <v>44</v>
+        <v>437</v>
       </c>
       <c r="AD41" s="61">
-        <v>304</v>
+        <v>2965</v>
       </c>
       <c r="AE41" s="63">
-        <v>-259</v>
+        <v>-2528</v>
       </c>
       <c r="AF41" s="65">
         <v>0</v>
@@ -6088,16 +6088,16 @@
         <v>0</v>
       </c>
       <c r="AI41" s="71">
-        <v>263</v>
+        <v>2474</v>
       </c>
       <c r="AJ41" s="73">
-        <v>368</v>
+        <v>3608</v>
       </c>
       <c r="AK41" s="75">
-        <v>-105</v>
+        <v>-1134</v>
       </c>
       <c r="AL41" s="77">
-        <v>47504</v>
+        <v>464618</v>
       </c>
     </row>
     <row r="42">
@@ -6105,94 +6105,94 @@
         <v>54</v>
       </c>
       <c r="B42" s="5">
-        <v>1119</v>
+        <v>9554</v>
       </c>
       <c r="C42" s="7">
-        <v>671</v>
+        <v>5720</v>
       </c>
       <c r="D42" s="9">
-        <v>448</v>
+        <v>3835</v>
       </c>
       <c r="E42" s="11">
-        <v>7743</v>
+        <v>64714</v>
       </c>
       <c r="F42" s="13">
-        <v>8396</v>
+        <v>70300</v>
       </c>
       <c r="G42" s="15">
-        <v>-654</v>
+        <v>-5586</v>
       </c>
       <c r="H42" s="17">
-        <v>576</v>
+        <v>4818</v>
       </c>
       <c r="I42" s="19">
-        <v>460</v>
+        <v>3817</v>
       </c>
       <c r="J42" s="21">
-        <v>115</v>
+        <v>1001</v>
       </c>
       <c r="K42" s="23">
-        <v>64</v>
+        <v>537</v>
       </c>
       <c r="L42" s="25">
-        <v>80</v>
+        <v>668</v>
       </c>
       <c r="M42" s="27">
-        <v>-16</v>
+        <v>-131</v>
       </c>
       <c r="N42" s="29">
+        <v>78</v>
+      </c>
+      <c r="O42" s="31">
+        <v>191</v>
+      </c>
+      <c r="P42" s="33">
+        <v>-114</v>
+      </c>
+      <c r="Q42" s="35">
+        <v>293</v>
+      </c>
+      <c r="R42" s="37">
+        <v>607</v>
+      </c>
+      <c r="S42" s="39">
+        <v>-314</v>
+      </c>
+      <c r="T42" s="41">
+        <v>51</v>
+      </c>
+      <c r="U42" s="43">
         <v>9</v>
       </c>
-      <c r="O42" s="31">
-        <v>23</v>
-      </c>
-      <c r="P42" s="33">
-        <v>-14</v>
-      </c>
-      <c r="Q42" s="35">
-        <v>35</v>
-      </c>
-      <c r="R42" s="37">
-        <v>73</v>
-      </c>
-      <c r="S42" s="39">
-        <v>-38</v>
-      </c>
-      <c r="T42" s="41">
-        <v>6</v>
-      </c>
-      <c r="U42" s="43">
-        <v>1</v>
-      </c>
       <c r="V42" s="45">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="W42" s="47">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="X42" s="49">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="Y42" s="51">
-        <v>-11</v>
+        <v>-86</v>
       </c>
       <c r="Z42" s="53">
-        <v>450</v>
+        <v>3761</v>
       </c>
       <c r="AA42" s="55">
-        <v>189</v>
+        <v>1550</v>
       </c>
       <c r="AB42" s="57">
-        <v>261</v>
+        <v>2211</v>
       </c>
       <c r="AC42" s="59">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="AD42" s="61">
-        <v>80</v>
+        <v>674</v>
       </c>
       <c r="AE42" s="63">
-        <v>-72</v>
+        <v>-607</v>
       </c>
       <c r="AF42" s="65">
         <v>0</v>
@@ -6204,16 +6204,16 @@
         <v>0</v>
       </c>
       <c r="AI42" s="71">
-        <v>177</v>
+        <v>1471</v>
       </c>
       <c r="AJ42" s="73">
-        <v>87</v>
+        <v>720</v>
       </c>
       <c r="AK42" s="75">
-        <v>90</v>
+        <v>751</v>
       </c>
       <c r="AL42" s="77">
-        <v>9614</v>
+        <v>80557</v>
       </c>
     </row>
     <row r="43">
@@ -6221,94 +6221,94 @@
         <v>55</v>
       </c>
       <c r="B43" s="5">
-        <v>787</v>
+        <v>6361</v>
       </c>
       <c r="C43" s="7">
-        <v>1172</v>
+        <v>9509</v>
       </c>
       <c r="D43" s="9">
-        <v>-384</v>
+        <v>-3147</v>
       </c>
       <c r="E43" s="11">
-        <v>26816</v>
+        <v>227528</v>
       </c>
       <c r="F43" s="13">
-        <v>26302</v>
+        <v>222770</v>
       </c>
       <c r="G43" s="15">
-        <v>514</v>
+        <v>4758</v>
       </c>
       <c r="H43" s="17">
-        <v>1487</v>
+        <v>11809</v>
       </c>
       <c r="I43" s="19">
-        <v>1655</v>
+        <v>13675</v>
       </c>
       <c r="J43" s="21">
-        <v>-168</v>
+        <v>-1865</v>
       </c>
       <c r="K43" s="23">
-        <v>90</v>
+        <v>706</v>
       </c>
       <c r="L43" s="25">
-        <v>130</v>
+        <v>1071</v>
       </c>
       <c r="M43" s="27">
-        <v>-40</v>
+        <v>-366</v>
       </c>
       <c r="N43" s="29">
-        <v>63</v>
+        <v>488</v>
       </c>
       <c r="O43" s="31">
-        <v>101</v>
+        <v>868</v>
       </c>
       <c r="P43" s="33">
-        <v>-39</v>
+        <v>-381</v>
       </c>
       <c r="Q43" s="35">
-        <v>172</v>
+        <v>1356</v>
       </c>
       <c r="R43" s="37">
-        <v>614</v>
+        <v>4951</v>
       </c>
       <c r="S43" s="39">
-        <v>-442</v>
+        <v>-3595</v>
       </c>
       <c r="T43" s="41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U43" s="43">
         <v>0</v>
       </c>
       <c r="V43" s="45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W43" s="47">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="X43" s="49">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="Y43" s="51">
-        <v>-15</v>
+        <v>-124</v>
       </c>
       <c r="Z43" s="53">
-        <v>1116</v>
+        <v>8906</v>
       </c>
       <c r="AA43" s="55">
-        <v>335</v>
+        <v>2802</v>
       </c>
       <c r="AB43" s="57">
-        <v>781</v>
+        <v>6104</v>
       </c>
       <c r="AC43" s="59">
-        <v>43</v>
+        <v>329</v>
       </c>
       <c r="AD43" s="61">
-        <v>457</v>
+        <v>3835</v>
       </c>
       <c r="AE43" s="63">
-        <v>-414</v>
+        <v>-3506</v>
       </c>
       <c r="AF43" s="65">
         <v>0</v>
@@ -6320,16 +6320,16 @@
         <v>0</v>
       </c>
       <c r="AI43" s="71">
-        <v>147</v>
+        <v>1171</v>
       </c>
       <c r="AJ43" s="73">
-        <v>109</v>
+        <v>916</v>
       </c>
       <c r="AK43" s="75">
-        <v>38</v>
+        <v>254</v>
       </c>
       <c r="AL43" s="77">
-        <v>29237</v>
+        <v>246869</v>
       </c>
     </row>
     <row r="44">
@@ -6337,94 +6337,94 @@
         <v>56</v>
       </c>
       <c r="B44" s="5">
-        <v>1579</v>
+        <v>9953</v>
       </c>
       <c r="C44" s="7">
-        <v>1684</v>
+        <v>11361</v>
       </c>
       <c r="D44" s="9">
-        <v>-105</v>
+        <v>-1408</v>
       </c>
       <c r="E44" s="11">
-        <v>11797</v>
+        <v>76999</v>
       </c>
       <c r="F44" s="13">
-        <v>11106</v>
+        <v>71469</v>
       </c>
       <c r="G44" s="15">
-        <v>690</v>
+        <v>5530</v>
       </c>
       <c r="H44" s="17">
-        <v>1920</v>
+        <v>12561</v>
       </c>
       <c r="I44" s="19">
-        <v>2854</v>
+        <v>19024</v>
       </c>
       <c r="J44" s="21">
-        <v>-934</v>
+        <v>-6463</v>
       </c>
       <c r="K44" s="23">
-        <v>158</v>
+        <v>1004</v>
       </c>
       <c r="L44" s="25">
-        <v>417</v>
+        <v>2797</v>
       </c>
       <c r="M44" s="27">
-        <v>-259</v>
+        <v>-1793</v>
       </c>
       <c r="N44" s="29">
-        <v>89</v>
+        <v>657</v>
       </c>
       <c r="O44" s="31">
-        <v>261</v>
+        <v>1866</v>
       </c>
       <c r="P44" s="33">
-        <v>-172</v>
+        <v>-1208</v>
       </c>
       <c r="Q44" s="35">
-        <v>358</v>
+        <v>2449</v>
       </c>
       <c r="R44" s="37">
-        <v>1091</v>
+        <v>6847</v>
       </c>
       <c r="S44" s="39">
-        <v>-733</v>
+        <v>-4398</v>
       </c>
       <c r="T44" s="41">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="U44" s="43">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="V44" s="45">
-        <v>-2</v>
+        <v>-17</v>
       </c>
       <c r="W44" s="47">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="X44" s="49">
-        <v>57</v>
+        <v>359</v>
       </c>
       <c r="Y44" s="51">
-        <v>-44</v>
+        <v>-265</v>
       </c>
       <c r="Z44" s="53">
-        <v>1064</v>
+        <v>6878</v>
       </c>
       <c r="AA44" s="55">
-        <v>448</v>
+        <v>3384</v>
       </c>
       <c r="AB44" s="57">
-        <v>616</v>
+        <v>3494</v>
       </c>
       <c r="AC44" s="59">
-        <v>235</v>
+        <v>1465</v>
       </c>
       <c r="AD44" s="61">
-        <v>575</v>
+        <v>3742</v>
       </c>
       <c r="AE44" s="63">
-        <v>-340</v>
+        <v>-2277</v>
       </c>
       <c r="AF44" s="65">
         <v>0</v>
@@ -6436,16 +6436,16 @@
         <v>0</v>
       </c>
       <c r="AI44" s="71">
-        <v>399</v>
+        <v>2667</v>
       </c>
       <c r="AJ44" s="73">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="AK44" s="75">
-        <v>349</v>
+        <v>2341</v>
       </c>
       <c r="AL44" s="77">
-        <v>15694</v>
+        <v>102180</v>
       </c>
     </row>
     <row r="45">
@@ -6453,94 +6453,94 @@
         <v>57</v>
       </c>
       <c r="B45" s="5">
-        <v>766</v>
+        <v>6845</v>
       </c>
       <c r="C45" s="7">
-        <v>1168</v>
+        <v>10569</v>
       </c>
       <c r="D45" s="9">
-        <v>-402</v>
+        <v>-3724</v>
       </c>
       <c r="E45" s="11">
-        <v>7638</v>
+        <v>69822</v>
       </c>
       <c r="F45" s="13">
-        <v>6905</v>
+        <v>63396</v>
       </c>
       <c r="G45" s="15">
-        <v>733</v>
+        <v>6426</v>
       </c>
       <c r="H45" s="17">
-        <v>1851</v>
+        <v>16937</v>
       </c>
       <c r="I45" s="19">
-        <v>2219</v>
+        <v>19971</v>
       </c>
       <c r="J45" s="21">
-        <v>-368</v>
+        <v>-3034</v>
       </c>
       <c r="K45" s="23">
-        <v>277</v>
+        <v>2555</v>
       </c>
       <c r="L45" s="25">
-        <v>538</v>
+        <v>4813</v>
       </c>
       <c r="M45" s="27">
-        <v>-262</v>
+        <v>-2258</v>
       </c>
       <c r="N45" s="29">
-        <v>160</v>
+        <v>1468</v>
       </c>
       <c r="O45" s="31">
-        <v>307</v>
+        <v>2712</v>
       </c>
       <c r="P45" s="33">
-        <v>-147</v>
+        <v>-1245</v>
       </c>
       <c r="Q45" s="35">
-        <v>583</v>
+        <v>5330</v>
       </c>
       <c r="R45" s="37">
-        <v>336</v>
+        <v>3037</v>
       </c>
       <c r="S45" s="39">
-        <v>246</v>
+        <v>2293</v>
       </c>
       <c r="T45" s="41">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="U45" s="43">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="V45" s="45">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="W45" s="47">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="X45" s="49">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="Y45" s="51">
-        <v>-20</v>
+        <v>-172</v>
       </c>
       <c r="Z45" s="53">
-        <v>746</v>
+        <v>6784</v>
       </c>
       <c r="AA45" s="55">
-        <v>557</v>
+        <v>4998</v>
       </c>
       <c r="AB45" s="57">
-        <v>189</v>
+        <v>1787</v>
       </c>
       <c r="AC45" s="59">
-        <v>81</v>
+        <v>753</v>
       </c>
       <c r="AD45" s="61">
-        <v>458</v>
+        <v>4212</v>
       </c>
       <c r="AE45" s="63">
-        <v>-376</v>
+        <v>-3459</v>
       </c>
       <c r="AF45" s="65">
         <v>0</v>
@@ -6552,16 +6552,16 @@
         <v>0</v>
       </c>
       <c r="AI45" s="71">
-        <v>114</v>
+        <v>1049</v>
       </c>
       <c r="AJ45" s="73">
-        <v>77</v>
+        <v>717</v>
       </c>
       <c r="AK45" s="75">
-        <v>37</v>
+        <v>332</v>
       </c>
       <c r="AL45" s="77">
-        <v>10369</v>
+        <v>94653</v>
       </c>
     </row>
     <row r="46">
@@ -6569,58 +6569,58 @@
         <v>58</v>
       </c>
       <c r="B46" s="5">
-        <v>375</v>
+        <v>3682</v>
       </c>
       <c r="C46" s="7">
-        <v>806</v>
+        <v>8094</v>
       </c>
       <c r="D46" s="9">
-        <v>-431</v>
+        <v>-4412</v>
       </c>
       <c r="E46" s="11">
-        <v>20936</v>
+        <v>213972</v>
       </c>
       <c r="F46" s="13">
-        <v>17423</v>
+        <v>178325</v>
       </c>
       <c r="G46" s="15">
-        <v>3513</v>
+        <v>35647</v>
       </c>
       <c r="H46" s="17">
-        <v>1509</v>
+        <v>14708</v>
       </c>
       <c r="I46" s="19">
-        <v>4584</v>
+        <v>45846</v>
       </c>
       <c r="J46" s="21">
-        <v>-3075</v>
+        <v>-31138</v>
       </c>
       <c r="K46" s="23">
-        <v>125</v>
+        <v>1215</v>
       </c>
       <c r="L46" s="25">
-        <v>562</v>
+        <v>5553</v>
       </c>
       <c r="M46" s="27">
-        <v>-437</v>
+        <v>-4338</v>
       </c>
       <c r="N46" s="29">
-        <v>155</v>
+        <v>1508</v>
       </c>
       <c r="O46" s="31">
-        <v>377</v>
+        <v>3693</v>
       </c>
       <c r="P46" s="33">
-        <v>-222</v>
+        <v>-2185</v>
       </c>
       <c r="Q46" s="35">
-        <v>296</v>
+        <v>2866</v>
       </c>
       <c r="R46" s="37">
-        <v>704</v>
+        <v>6866</v>
       </c>
       <c r="S46" s="39">
-        <v>-408</v>
+        <v>-4000</v>
       </c>
       <c r="T46" s="41">
         <v>0</v>
@@ -6632,31 +6632,31 @@
         <v>0</v>
       </c>
       <c r="W46" s="47">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="X46" s="49">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="Y46" s="51">
-        <v>-22</v>
+        <v>-221</v>
       </c>
       <c r="Z46" s="53">
-        <v>719</v>
+        <v>6997</v>
       </c>
       <c r="AA46" s="55">
-        <v>509</v>
+        <v>5156</v>
       </c>
       <c r="AB46" s="57">
-        <v>210</v>
+        <v>1842</v>
       </c>
       <c r="AC46" s="59">
-        <v>211</v>
+        <v>2092</v>
       </c>
       <c r="AD46" s="61">
-        <v>2407</v>
+        <v>24328</v>
       </c>
       <c r="AE46" s="63">
-        <v>-2196</v>
+        <v>-22235</v>
       </c>
       <c r="AF46" s="65">
         <v>0</v>
@@ -6668,16 +6668,16 @@
         <v>0</v>
       </c>
       <c r="AI46" s="71">
-        <v>140</v>
+        <v>1445</v>
       </c>
       <c r="AJ46" s="73">
-        <v>149</v>
+        <v>1542</v>
       </c>
       <c r="AK46" s="75">
-        <v>-8</v>
+        <v>-97</v>
       </c>
       <c r="AL46" s="77">
-        <v>22961</v>
+        <v>233807</v>
       </c>
     </row>
     <row r="47">
@@ -6685,94 +6685,94 @@
         <v>59</v>
       </c>
       <c r="B47" s="5">
-        <v>232</v>
+        <v>2403</v>
       </c>
       <c r="C47" s="7">
-        <v>342</v>
+        <v>3584</v>
       </c>
       <c r="D47" s="9">
-        <v>-110</v>
+        <v>-1181</v>
       </c>
       <c r="E47" s="11">
-        <v>7650</v>
+        <v>79925</v>
       </c>
       <c r="F47" s="13">
-        <v>7277</v>
+        <v>76296</v>
       </c>
       <c r="G47" s="15">
-        <v>373</v>
+        <v>3629</v>
       </c>
       <c r="H47" s="17">
-        <v>2422</v>
+        <v>25585</v>
       </c>
       <c r="I47" s="19">
-        <v>2659</v>
+        <v>27761</v>
       </c>
       <c r="J47" s="21">
-        <v>-237</v>
+        <v>-2175</v>
       </c>
       <c r="K47" s="23">
-        <v>257</v>
+        <v>2717</v>
       </c>
       <c r="L47" s="25">
-        <v>604</v>
+        <v>6309</v>
       </c>
       <c r="M47" s="27">
-        <v>-346</v>
+        <v>-3592</v>
       </c>
       <c r="N47" s="29">
-        <v>284</v>
+        <v>2949</v>
       </c>
       <c r="O47" s="31">
-        <v>138</v>
+        <v>1454</v>
       </c>
       <c r="P47" s="33">
-        <v>146</v>
+        <v>1495</v>
       </c>
       <c r="Q47" s="35">
-        <v>448</v>
+        <v>4754</v>
       </c>
       <c r="R47" s="37">
-        <v>627</v>
+        <v>6534</v>
       </c>
       <c r="S47" s="39">
-        <v>-179</v>
+        <v>-1780</v>
       </c>
       <c r="T47" s="41">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="U47" s="43">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="V47" s="45">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W47" s="47">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="X47" s="49">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="Y47" s="51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z47" s="53">
-        <v>741</v>
+        <v>7949</v>
       </c>
       <c r="AA47" s="55">
-        <v>285</v>
+        <v>2957</v>
       </c>
       <c r="AB47" s="57">
-        <v>456</v>
+        <v>4992</v>
       </c>
       <c r="AC47" s="59">
-        <v>669</v>
+        <v>6982</v>
       </c>
       <c r="AD47" s="61">
-        <v>984</v>
+        <v>10278</v>
       </c>
       <c r="AE47" s="63">
-        <v>-315</v>
+        <v>-3296</v>
       </c>
       <c r="AF47" s="65">
         <v>0</v>
@@ -6784,16 +6784,16 @@
         <v>0</v>
       </c>
       <c r="AI47" s="71">
-        <v>77</v>
+        <v>806</v>
       </c>
       <c r="AJ47" s="73">
-        <v>103</v>
+        <v>1079</v>
       </c>
       <c r="AK47" s="75">
-        <v>-26</v>
+        <v>-273</v>
       </c>
       <c r="AL47" s="77">
-        <v>10380</v>
+        <v>108720</v>
       </c>
     </row>
     <row r="48">
@@ -6801,94 +6801,94 @@
         <v>60</v>
       </c>
       <c r="B48" s="6">
-        <v>447</v>
+        <v>4992</v>
       </c>
       <c r="C48" s="8">
-        <v>3961</v>
+        <v>44911</v>
       </c>
       <c r="D48" s="10">
-        <v>-3514</v>
+        <v>-39919</v>
       </c>
       <c r="E48" s="12">
-        <v>30385</v>
+        <v>349341</v>
       </c>
       <c r="F48" s="14">
-        <v>24279</v>
+        <v>280154</v>
       </c>
       <c r="G48" s="16">
-        <v>6106</v>
+        <v>69186</v>
       </c>
       <c r="H48" s="18">
-        <v>5574</v>
+        <v>63967</v>
       </c>
       <c r="I48" s="20">
-        <v>8234</v>
+        <v>93980</v>
       </c>
       <c r="J48" s="22">
-        <v>-2661</v>
+        <v>-30013</v>
       </c>
       <c r="K48" s="24">
-        <v>1052</v>
+        <v>12204</v>
       </c>
       <c r="L48" s="26">
-        <v>1220</v>
+        <v>13792</v>
       </c>
       <c r="M48" s="28">
-        <v>-168</v>
+        <v>-1588</v>
       </c>
       <c r="N48" s="30">
-        <v>377</v>
+        <v>4210</v>
       </c>
       <c r="O48" s="32">
-        <v>187</v>
+        <v>2092</v>
       </c>
       <c r="P48" s="34">
-        <v>190</v>
+        <v>2118</v>
       </c>
       <c r="Q48" s="36">
-        <v>1062</v>
+        <v>12138</v>
       </c>
       <c r="R48" s="38">
-        <v>2684</v>
+        <v>30561</v>
       </c>
       <c r="S48" s="40">
-        <v>-1622</v>
+        <v>-18423</v>
       </c>
       <c r="T48" s="42">
-        <v>85</v>
+        <v>964</v>
       </c>
       <c r="U48" s="44">
-        <v>43</v>
+        <v>506</v>
       </c>
       <c r="V48" s="46">
-        <v>41</v>
+        <v>459</v>
       </c>
       <c r="W48" s="48">
-        <v>34</v>
+        <v>376</v>
       </c>
       <c r="X48" s="50">
-        <v>229</v>
+        <v>2614</v>
       </c>
       <c r="Y48" s="52">
-        <v>-195</v>
+        <v>-2237</v>
       </c>
       <c r="Z48" s="54">
-        <v>491</v>
+        <v>5513</v>
       </c>
       <c r="AA48" s="56">
-        <v>67</v>
+        <v>774</v>
       </c>
       <c r="AB48" s="58">
-        <v>425</v>
+        <v>4738</v>
       </c>
       <c r="AC48" s="60">
-        <v>2473</v>
+        <v>28562</v>
       </c>
       <c r="AD48" s="62">
-        <v>3804</v>
+        <v>43641</v>
       </c>
       <c r="AE48" s="64">
-        <v>-1332</v>
+        <v>-15079</v>
       </c>
       <c r="AF48" s="66">
         <v>0</v>
@@ -6900,16 +6900,16 @@
         <v>0</v>
       </c>
       <c r="AI48" s="72">
-        <v>505</v>
+        <v>5774</v>
       </c>
       <c r="AJ48" s="74">
-        <v>436</v>
+        <v>5028</v>
       </c>
       <c r="AK48" s="76">
-        <v>69</v>
+        <v>746</v>
       </c>
       <c r="AL48" s="78">
-        <v>36911</v>
+        <v>424074</v>
       </c>
     </row>
   </sheetData>
